--- a/aka-Tolob-files/Проводки.xlsx
+++ b/aka-Tolob-files/Проводки.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760" tabRatio="810" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760" tabRatio="810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="НЯХ" sheetId="4" r:id="rId1"/>
-    <sheet name="Дт            Кт" sheetId="6" r:id="rId2"/>
+    <sheet name="ПРОВОДКИ" sheetId="6" r:id="rId2"/>
     <sheet name="расчеты по ЗП (2)" sheetId="13" r:id="rId3"/>
     <sheet name="План счетов" sheetId="7" r:id="rId4"/>
     <sheet name="ОСВ" sheetId="11" r:id="rId5"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4261" uniqueCount="1939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="1947">
   <si>
     <t>Касса</t>
   </si>
@@ -5878,9 +5878,6 @@
     <t>Сдано в банк наличными</t>
   </si>
   <si>
-    <t>Подотчёт</t>
-  </si>
-  <si>
     <t>Пардохти Уҳдадориҳои ҳисобкардашуда ба шахсони ҳисоботдеҳ</t>
   </si>
   <si>
@@ -5908,9 +5905,6 @@
     <t>Поступление Основных средств / Нематериальных активов</t>
   </si>
   <si>
-    <t>«1 41 400»                      1 49 100</t>
-  </si>
-  <si>
     <t>Маҳсулоти тайёр / Мебел, лавозимоти идора,асбобҳо, инвентари истеҳсолӣ ва хоҷагидорӣ</t>
   </si>
   <si>
@@ -5939,6 +5933,36 @@
   </si>
   <si>
     <t xml:space="preserve">Маҳсулоти тайёр       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 11 120 Пешпардохтҳои гирифташуда </t>
+  </si>
+  <si>
+    <t>Счет учета авансов Кредит</t>
+  </si>
+  <si>
+    <t>Счет учета авансов ДЕБЕТ</t>
+  </si>
+  <si>
+    <t>поступление за товары работы услуги</t>
+  </si>
+  <si>
+    <t>Оплата за товары, работы и услуги</t>
+  </si>
+  <si>
+    <t>1 25 100  /   1 25 200                                                    Пешпардохтҳои додашуда барои молҳо  /   Пешпардохтҳои додашуда барои иљрои кор ва хизматрасониҳо</t>
+  </si>
+  <si>
+    <t>2 11 110 Ҳисобҳо барои пардохт</t>
+  </si>
+  <si>
+    <t>1 23 100  Ҳисобҳо барои қабул / 4 42 900</t>
+  </si>
+  <si>
+    <t>выплата в Подотчёт</t>
+  </si>
+  <si>
+    <t>«1 41 400»                                     1 49 100</t>
   </si>
 </sst>
 </file>
@@ -5948,7 +5972,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6440,6 +6464,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman Tj"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman Tj"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -6497,7 +6555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -6635,26 +6693,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -7106,6 +7144,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7115,7 +7278,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="502">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7220,9 +7383,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7232,10 +7392,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -7245,9 +7405,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7258,17 +7415,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7277,13 +7425,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7322,26 +7463,23 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7400,15 +7538,15 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7417,62 +7555,62 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7484,17 +7622,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7507,21 +7645,21 @@
     <xf numFmtId="2" fontId="29" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -7554,42 +7692,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7598,11 +7736,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7614,109 +7752,106 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -7726,70 +7861,70 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="29" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7820,19 +7955,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7842,33 +7977,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7922,13 +8057,9 @@
     <xf numFmtId="0" fontId="47" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7938,31 +8069,13 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8012,22 +8125,22 @@
     <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="60" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="61" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8048,21 +8161,199 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="64" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="64" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="55" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8072,160 +8363,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="52" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8234,7 +8531,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8243,56 +8546,74 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -13484,8 +13805,8 @@
   <dimension ref="A1:C972"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A605" sqref="A605:C605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -24177,1819 +24498,2157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L210"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" style="83" customWidth="1"/>
-    <col min="4" max="4" width="75" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="50" customWidth="1"/>
-    <col min="6" max="6" width="92.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="75" customWidth="1"/>
+    <col min="4" max="4" width="75" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="49" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" style="49" customWidth="1"/>
+    <col min="7" max="7" width="92.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:12" s="45" customFormat="1" ht="37.200000000000003" thickBot="1">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:10" s="44" customFormat="1" ht="37.200000000000003" thickBot="1">
+      <c r="B2" s="45" t="s">
         <v>1794</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="76" t="s">
         <v>1793</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>1787</v>
       </c>
-      <c r="E2" s="331" t="s">
+      <c r="E2" s="313" t="s">
         <v>1770</v>
       </c>
-      <c r="F2" s="331" t="s">
+      <c r="F2" s="313"/>
+      <c r="G2" s="313" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="171"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-    </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B4" s="406" t="s">
+      <c r="H2" s="402" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="361"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="363"/>
+    </row>
+    <row r="4" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B4" s="457" t="s">
         <v>1839</v>
       </c>
-      <c r="C4" s="321" t="s">
+      <c r="C4" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="321" t="s">
+      <c r="D4" s="309" t="s">
         <v>1894</v>
       </c>
-      <c r="E4" s="409" t="s">
+      <c r="E4" s="460" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F4" s="353"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="363"/>
+    </row>
+    <row r="5" spans="2:10" ht="31.8">
+      <c r="B5" s="458"/>
+      <c r="C5" s="309" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D5" s="309" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E5" s="461"/>
+      <c r="F5" s="354"/>
+      <c r="G5" s="311"/>
+      <c r="H5" s="363"/>
+    </row>
+    <row r="6" spans="2:10" ht="31.8">
+      <c r="B6" s="458"/>
+      <c r="C6" s="371" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D6" s="309" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E6" s="461"/>
+      <c r="F6" s="354"/>
+      <c r="G6" s="312"/>
+      <c r="H6" s="363"/>
+    </row>
+    <row r="7" spans="2:10" ht="36">
+      <c r="B7" s="459"/>
+      <c r="C7" s="309" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D7" s="309" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E7" s="461"/>
+      <c r="F7" s="354"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="363"/>
+    </row>
+    <row r="8" spans="2:10" s="144" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
+      <c r="B8" s="378"/>
+      <c r="C8" s="379"/>
+      <c r="D8" s="380" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E8" s="462"/>
+      <c r="F8" s="381"/>
+      <c r="G8" s="372" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H8" s="372" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="38.4" customHeight="1">
+      <c r="B9" s="373"/>
+      <c r="C9" s="374"/>
+      <c r="D9" s="375"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="354"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="377"/>
+    </row>
+    <row r="10" spans="2:10" ht="38.4" customHeight="1">
+      <c r="B10" s="373"/>
+      <c r="C10" s="374"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="354"/>
+      <c r="F10" s="354"/>
+      <c r="G10" s="376"/>
+      <c r="H10" s="377"/>
+    </row>
+    <row r="11" spans="2:10" ht="18.600000000000001" thickBot="1">
+      <c r="B11" s="368"/>
+      <c r="C11" s="369"/>
+      <c r="D11" s="369"/>
+      <c r="E11" s="370"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="370"/>
+    </row>
+    <row r="12" spans="2:10" s="40" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="B12" s="356"/>
+      <c r="C12" s="357"/>
+      <c r="D12" s="357"/>
+      <c r="E12" s="358"/>
+      <c r="F12" s="358"/>
+      <c r="G12" s="358"/>
+      <c r="H12" s="359"/>
+      <c r="I12" s="359"/>
+      <c r="J12" s="360"/>
+    </row>
+    <row r="13" spans="2:10" ht="63" thickBot="1">
+      <c r="B13" s="361"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="362"/>
+      <c r="E13" s="314" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F13" s="401" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G13" s="314" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="363"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B14" s="441" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C14" s="309" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D14" s="309" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E14" s="310"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="438" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="363"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" customHeight="1">
+      <c r="B15" s="442"/>
+      <c r="C15" s="309" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D15" s="309" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E15" s="310"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="439"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="363"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" customHeight="1">
+      <c r="B16" s="442"/>
+      <c r="C16" s="309" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D16" s="309" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E16" s="310"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="439"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="363"/>
+    </row>
+    <row r="17" spans="2:13" ht="52.5" customHeight="1">
+      <c r="B17" s="442"/>
+      <c r="C17" s="315" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D17" s="315" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E17" s="310"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="439"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="400"/>
+      <c r="K17" s="417"/>
+      <c r="L17" s="417"/>
+      <c r="M17" s="417"/>
+    </row>
+    <row r="18" spans="2:13" ht="105.6" thickBot="1">
+      <c r="B18" s="443"/>
+      <c r="C18" s="364"/>
+      <c r="D18" s="365" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E18" s="407" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F18" s="406" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G18" s="440"/>
+      <c r="I18" s="366"/>
+      <c r="J18" s="367"/>
+    </row>
+    <row r="20" spans="2:13" s="40" customFormat="1">
+      <c r="B20" s="42"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="2:13" ht="18.600000000000001" thickBot="1"/>
+    <row r="22" spans="2:13" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="B22" s="426" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="313" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F22" s="313"/>
+      <c r="G22" s="313" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H22" s="313" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="33.6">
+      <c r="B23" s="427"/>
+      <c r="C23" s="59" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E23" s="418" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="347"/>
+      <c r="G23" s="58"/>
+    </row>
+    <row r="24" spans="2:13" ht="33.6">
+      <c r="B24" s="427"/>
+      <c r="C24" s="59" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E24" s="419"/>
+      <c r="F24" s="348"/>
+      <c r="G24" s="58"/>
+    </row>
+    <row r="25" spans="2:13" ht="33.6">
+      <c r="B25" s="427"/>
+      <c r="C25" s="59" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E25" s="419"/>
+      <c r="F25" s="348"/>
+      <c r="G25" s="58"/>
+    </row>
+    <row r="26" spans="2:13" ht="33.6">
+      <c r="B26" s="427"/>
+      <c r="C26" s="59" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E26" s="419"/>
+      <c r="F26" s="348"/>
+      <c r="G26" s="58"/>
+    </row>
+    <row r="27" spans="2:13" ht="34.200000000000003" thickBot="1">
+      <c r="B27" s="427"/>
+      <c r="C27" s="59" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="420"/>
+      <c r="F27" s="349"/>
+      <c r="G27" s="408" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H27" s="408" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" s="164" customFormat="1" ht="33.6">
+      <c r="B28" s="496"/>
+      <c r="C28" s="497"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="498"/>
+      <c r="F28" s="499"/>
+      <c r="G28" s="494"/>
+      <c r="H28" s="495"/>
+    </row>
+    <row r="29" spans="2:13" s="164" customFormat="1" ht="33.6">
+      <c r="B29" s="496"/>
+      <c r="C29" s="497"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="498"/>
+      <c r="F29" s="499"/>
+      <c r="G29" s="494"/>
+      <c r="H29" s="495"/>
+    </row>
+    <row r="30" spans="2:13" s="164" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="B30" s="500"/>
+      <c r="C30" s="497"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="501"/>
+      <c r="F30" s="501"/>
+      <c r="G30" s="501"/>
+    </row>
+    <row r="31" spans="2:13" s="40" customFormat="1" ht="63" thickBot="1">
+      <c r="B31" s="42"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="313" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F31" s="401" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G31" s="409" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H31" s="409" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="18.75" customHeight="1">
+      <c r="B32" s="434" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D32" s="405" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+    </row>
+    <row r="33" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B33" s="435"/>
+      <c r="C33" s="78" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D33" s="405" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E33" s="189"/>
+      <c r="F33" s="382"/>
+      <c r="G33" s="432" t="str">
+        <f>E23</f>
+        <v>«1 11 110»</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B34" s="435"/>
+      <c r="C34" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="405" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E34" s="189"/>
+      <c r="F34" s="383"/>
+      <c r="G34" s="433"/>
+    </row>
+    <row r="35" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B35" s="435"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="405"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="383"/>
+      <c r="G35" s="433"/>
+    </row>
+    <row r="36" spans="2:7" ht="72">
+      <c r="B36" s="435"/>
+      <c r="C36" s="404" t="s">
+        <v>591</v>
+      </c>
+      <c r="D36" s="405" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="F36" s="403" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G36" s="433"/>
+    </row>
+    <row r="37" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B37" s="435"/>
+      <c r="C37" s="78" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D37" s="405" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E37" s="189"/>
+      <c r="F37" s="383"/>
+      <c r="G37" s="433"/>
+    </row>
+    <row r="38" spans="2:7" s="40" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="B38" s="42"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+    </row>
+    <row r="39" spans="2:7" ht="37.200000000000003" thickBot="1">
+      <c r="B39" s="467" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="313" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F39" s="313"/>
+      <c r="G39" s="313" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="44.25" customHeight="1">
+      <c r="B40" s="467"/>
+      <c r="C40" s="43" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" s="87"/>
+      <c r="F40" s="384"/>
+      <c r="G40" s="418" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B41" s="467"/>
+      <c r="C41" s="86" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="385"/>
+      <c r="G41" s="468"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="467"/>
+      <c r="C42" s="43" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="385"/>
+      <c r="G42" s="468"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="467"/>
+      <c r="C43" s="91" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="468"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="467"/>
+      <c r="C44" s="43" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E44" s="58"/>
+      <c r="F44" s="351"/>
+      <c r="G44" s="468"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="467"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="385"/>
+      <c r="G45" s="468"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="467"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="351"/>
+      <c r="G46" s="468"/>
+    </row>
+    <row r="47" spans="2:7" ht="36">
+      <c r="B47" s="467"/>
+      <c r="C47" s="43" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D47" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="58"/>
+      <c r="F47" s="352"/>
+      <c r="G47" s="469"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+    </row>
+    <row r="54" spans="1:10" ht="44.25" customHeight="1">
+      <c r="C54" s="196" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D54" s="197"/>
+      <c r="E54" s="145" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F54" s="145"/>
+      <c r="G54" s="146" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="316" customFormat="1" ht="39.6" customHeight="1">
+      <c r="B55" s="324"/>
+      <c r="C55" s="325" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D55" s="326"/>
+      <c r="E55" s="327" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="327"/>
+      <c r="G55" s="331" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="63">
+      <c r="B56" s="43"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="328" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="328"/>
+      <c r="G56" s="328" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="18.600000000000001" thickBot="1"/>
+    <row r="60" spans="1:10" ht="69" customHeight="1">
+      <c r="B60" s="179"/>
+      <c r="D60" s="181" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E60" s="182"/>
+      <c r="F60" s="182"/>
+      <c r="G60" s="183"/>
+      <c r="H60" s="184"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+    </row>
+    <row r="61" spans="1:10" ht="36">
+      <c r="A61" s="36"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="185"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="142" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H61" s="186" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="25.8">
+      <c r="A62" s="36"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="185"/>
+      <c r="D62" s="338" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E62" s="331" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F62" s="331"/>
+      <c r="G62" s="333" t="s">
+        <v>590</v>
+      </c>
+      <c r="H62" s="335" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="24" thickBot="1">
+      <c r="A63" s="36"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="187"/>
+      <c r="D63" s="339" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E63" s="216" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F63" s="216"/>
+      <c r="G63" s="336" t="s">
+        <v>591</v>
+      </c>
+      <c r="H63" s="337" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="35"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="180"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="171"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="35"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="180"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="168"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="171"/>
+    </row>
+    <row r="66" spans="1:8" ht="18.600000000000001" thickBot="1">
+      <c r="A66" s="35"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="97"/>
+    </row>
+    <row r="67" spans="1:8" ht="55.5" customHeight="1" thickBot="1">
+      <c r="B67" s="92"/>
+      <c r="C67" s="464" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D67" s="465"/>
+      <c r="E67" s="466"/>
+      <c r="F67" s="386"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="97"/>
+    </row>
+    <row r="68" spans="1:8" ht="36">
+      <c r="A68" s="35"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="83" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F68" s="355"/>
+      <c r="G68" s="83" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H68" s="87" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="46.8">
+      <c r="A69" s="35"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="344" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E69" s="340" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F69" s="340"/>
+      <c r="G69" s="341" t="s">
+        <v>590</v>
+      </c>
+      <c r="H69" s="341" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="93.6">
+      <c r="A70" s="35"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="345" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E70" s="341" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F70" s="341"/>
+      <c r="G70" s="342" t="s">
+        <v>591</v>
+      </c>
+      <c r="H70" s="343" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="35"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="97"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="35"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="97"/>
+    </row>
+    <row r="73" spans="1:8" ht="18.600000000000001" thickBot="1">
+      <c r="A73" s="35"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="97"/>
+    </row>
+    <row r="74" spans="1:8" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A74" s="35"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="464" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D74" s="465"/>
+      <c r="E74" s="466"/>
+      <c r="F74" s="386"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="97"/>
+    </row>
+    <row r="75" spans="1:8" ht="36">
+      <c r="A75" s="35"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="83" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F75" s="355"/>
+      <c r="G75" s="83" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H75" s="87" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="36">
+      <c r="A76" s="35"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="217" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E76" s="215" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F76" s="215"/>
+      <c r="G76" s="200" t="s">
+        <v>590</v>
+      </c>
+      <c r="H76" s="200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="72">
+      <c r="A77" s="35"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="329"/>
+      <c r="D77" s="472" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E77" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="F77" s="350"/>
+      <c r="G77" s="436" t="s">
+        <v>591</v>
+      </c>
+      <c r="H77" s="453" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="46.8">
+      <c r="A78" s="35"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="472"/>
+      <c r="E78" s="330" t="s">
+        <v>402</v>
+      </c>
+      <c r="F78" s="387"/>
+      <c r="G78" s="437"/>
+      <c r="H78" s="454"/>
+    </row>
+    <row r="79" spans="1:8" ht="18.600000000000001" thickBot="1">
+      <c r="A79" s="35"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="97"/>
+    </row>
+    <row r="80" spans="1:8" ht="21">
+      <c r="B80" s="162"/>
+      <c r="C80" s="154" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D80" s="173"/>
+      <c r="E80" s="174"/>
+      <c r="F80" s="166"/>
+      <c r="G80" s="163"/>
+      <c r="H80" s="164"/>
+    </row>
+    <row r="81" spans="2:8" ht="21">
+      <c r="B81" s="162"/>
+      <c r="C81" s="175"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="176"/>
+      <c r="F81" s="166"/>
+      <c r="G81" s="163"/>
+      <c r="H81" s="164"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="165"/>
+      <c r="C82" s="218"/>
+      <c r="D82" s="142" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E82" s="177" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F82" s="388"/>
+      <c r="G82" s="166"/>
+      <c r="H82" s="167"/>
+    </row>
+    <row r="83" spans="2:8" ht="36.6" customHeight="1">
+      <c r="B83" s="165"/>
+      <c r="C83" s="219" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D83" s="332" t="s">
+        <v>326</v>
+      </c>
+      <c r="E83" s="334" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F83" s="389"/>
+      <c r="G83" s="166"/>
+      <c r="H83" s="168"/>
+    </row>
+    <row r="84" spans="2:8" ht="108.6" thickBot="1">
+      <c r="B84" s="165"/>
+      <c r="C84" s="220" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D84" s="216" t="s">
+        <v>327</v>
+      </c>
+      <c r="E84" s="178" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F84" s="170"/>
+      <c r="G84" s="166"/>
+      <c r="H84" s="171"/>
+    </row>
+    <row r="86" spans="2:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="87" spans="2:8" ht="21">
+      <c r="C87" s="154" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D87" s="155"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="150"/>
+      <c r="G87" s="150"/>
+      <c r="H87" s="35"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="92"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="149"/>
+      <c r="E88" s="151"/>
+      <c r="F88" s="151"/>
+      <c r="G88" s="151"/>
+      <c r="H88" s="152"/>
+    </row>
+    <row r="89" spans="2:8" ht="25.95" customHeight="1">
+      <c r="B89" s="92"/>
+      <c r="C89" s="221" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D89" s="223" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E89" s="153"/>
+      <c r="F89" s="153"/>
+      <c r="G89" s="153"/>
+      <c r="H89" s="95"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="92"/>
+      <c r="C90" s="157"/>
+      <c r="D90" s="158"/>
+      <c r="E90" s="95"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="96"/>
+      <c r="H90" s="97"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="92"/>
+      <c r="C91" s="221" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D91" s="222" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E91" s="150"/>
+      <c r="F91" s="150"/>
+      <c r="G91" s="150"/>
+      <c r="H91" s="35"/>
+    </row>
+    <row r="92" spans="2:8" ht="25.2" customHeight="1" thickBot="1">
+      <c r="B92" s="92"/>
+      <c r="C92" s="159" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D92" s="160" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E92" s="150"/>
+      <c r="F92" s="150"/>
+      <c r="G92" s="150"/>
+      <c r="H92" s="35"/>
+    </row>
+    <row r="94" spans="2:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="95" spans="2:8" ht="21">
+      <c r="B95" s="92"/>
+      <c r="C95" s="154" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D95" s="155"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="92"/>
+      <c r="C96" s="156"/>
+      <c r="D96" s="149"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="92"/>
+      <c r="C97" s="221" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D97" s="223"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="92"/>
+      <c r="C98" s="221" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D98" s="224"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="92"/>
+      <c r="C99" s="221" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D99" s="222" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B100" s="92"/>
+      <c r="C100" s="159" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D100" s="160" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="102" spans="2:7" ht="21">
+      <c r="C102" s="225" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D102" s="226"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="C103" s="227"/>
+      <c r="D103" s="228"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="C104" s="221" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D104" s="223"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="C105" s="221" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D105" s="223"/>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="C106" s="221" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D106" s="222" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="C107" s="159" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D107" s="160" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G107"/>
+    </row>
+    <row r="110" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="2:7" ht="54">
+      <c r="B111" s="241" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C111" s="242"/>
+      <c r="D111" s="243" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E111" s="244" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F111" s="388"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="245"/>
+      <c r="C112" s="169"/>
+      <c r="D112" s="248"/>
+      <c r="E112" s="249"/>
+      <c r="F112" s="168"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="2:7" ht="29.4" customHeight="1">
+      <c r="B113" s="470" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C113" s="253"/>
+      <c r="D113" s="254" t="s">
+        <v>359</v>
+      </c>
+      <c r="E113" s="214" t="s">
+        <v>344</v>
+      </c>
+      <c r="F113" s="390"/>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="2:7" ht="72.599999999999994" thickBot="1">
+      <c r="B114" s="471"/>
+      <c r="C114" s="188"/>
+      <c r="D114" s="206" t="s">
+        <v>360</v>
+      </c>
+      <c r="E114" s="247" t="s">
+        <v>345</v>
+      </c>
+      <c r="F114" s="390"/>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="245"/>
+      <c r="C115" s="169"/>
+      <c r="D115" s="248"/>
+      <c r="E115" s="249"/>
+      <c r="F115" s="168"/>
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="245"/>
+      <c r="C116" s="229" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D116" s="246" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E116" s="214" t="s">
+        <v>344</v>
+      </c>
+      <c r="F116" s="390"/>
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="2:7" ht="72.599999999999994" thickBot="1">
+      <c r="B117" s="251"/>
+      <c r="C117" s="230" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D117" s="255" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E117" s="247" t="s">
+        <v>345</v>
+      </c>
+      <c r="F117" s="390"/>
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="C118" s="169"/>
+      <c r="E118" s="168"/>
+      <c r="F118" s="168"/>
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="C119" s="169"/>
+      <c r="E119" s="168"/>
+      <c r="F119" s="168"/>
+    </row>
+    <row r="122" spans="2:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="123" spans="2:7" ht="24" thickBot="1">
+      <c r="B123" s="195" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C123" s="421" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D123" s="422"/>
+      <c r="E123" s="423" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F123" s="424"/>
+      <c r="G123" s="463"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="C124" s="191" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D124" s="191" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E124" s="193" t="s">
+        <v>306</v>
+      </c>
+      <c r="F124" s="193"/>
+      <c r="G124" s="193" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="C125" s="89"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="193"/>
+      <c r="F125" s="193"/>
+      <c r="G125" s="193"/>
+    </row>
+    <row r="130" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="E130" s="190"/>
+      <c r="F130" s="190"/>
+      <c r="G130" s="190"/>
+    </row>
+    <row r="131" spans="2:7" ht="42" customHeight="1" thickBot="1">
+      <c r="B131" s="194" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C131" s="421" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D131" s="422"/>
+      <c r="E131" s="423" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F131" s="424"/>
+      <c r="G131" s="463"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="C132" s="191" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D132" s="191" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E132" s="193" t="s">
+        <v>302</v>
+      </c>
+      <c r="F132" s="193"/>
+      <c r="G132" s="193" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="C133" s="89" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D133" s="89" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E133" s="193" t="s">
+        <v>304</v>
+      </c>
+      <c r="F133" s="193"/>
+      <c r="G133" s="193" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="C134" s="89" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D134" s="89" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E134" s="193"/>
+      <c r="F134" s="193"/>
+      <c r="G134" s="193"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135"/>
+      <c r="C135" s="89" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D135" s="89" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E135" s="193" t="s">
+        <v>308</v>
+      </c>
+      <c r="F135" s="193"/>
+      <c r="G135" s="193" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136"/>
+      <c r="C136" s="89" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D136" s="89" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E136" s="193" t="s">
+        <v>310</v>
+      </c>
+      <c r="F136" s="193"/>
+      <c r="G136" s="193" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137"/>
+      <c r="C137" s="89" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D137" s="89" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E137" s="193" t="s">
+        <v>312</v>
+      </c>
+      <c r="F137" s="193"/>
+      <c r="G137" s="193" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138"/>
+      <c r="C138" s="89" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D138" s="89" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E138" s="193" t="s">
+        <v>316</v>
+      </c>
+      <c r="F138" s="193"/>
+      <c r="G138" s="193" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139"/>
+      <c r="C139" s="89" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D139" s="89" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E139" s="193" t="s">
+        <v>318</v>
+      </c>
+      <c r="F139" s="193"/>
+      <c r="G139" s="193" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140"/>
+      <c r="C140" s="89" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D140" s="89" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E140" s="193" t="s">
+        <v>320</v>
+      </c>
+      <c r="F140" s="193"/>
+      <c r="G140" s="193" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141"/>
+      <c r="C141" s="89" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D141" s="89" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E141" s="193" t="s">
+        <v>322</v>
+      </c>
+      <c r="F141" s="193"/>
+      <c r="G141" s="193" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142"/>
+      <c r="C142" s="89" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D142" s="89" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E142" s="193"/>
+      <c r="F142" s="193"/>
+      <c r="G142" s="193"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143"/>
+      <c r="C143" s="89" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D143" s="89" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E143" s="193" t="s">
+        <v>326</v>
+      </c>
+      <c r="F143" s="193"/>
+      <c r="G143" s="193" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144"/>
+      <c r="C144" s="89" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D144" s="89" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E144" s="193"/>
+      <c r="F144" s="193"/>
+      <c r="G144" s="193"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="B145"/>
+      <c r="C145" s="89" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D145" s="89" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E145" s="192"/>
+      <c r="F145" s="352"/>
+      <c r="G145" s="192"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="B146"/>
+      <c r="C146" s="89" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D146" s="89" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E146" s="51"/>
+      <c r="F146" s="51"/>
+      <c r="G146" s="51"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147"/>
+      <c r="C147" s="89" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D147" s="89" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E147" s="51"/>
+      <c r="F147" s="51"/>
+      <c r="G147" s="51"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="B148"/>
+      <c r="C148" s="89" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D148" s="89" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="51"/>
+    </row>
+    <row r="152" spans="1:8" s="99" customFormat="1">
+      <c r="B152" s="100"/>
+      <c r="C152" s="101"/>
+      <c r="D152" s="102"/>
+      <c r="E152" s="103"/>
+      <c r="F152" s="103"/>
+      <c r="G152" s="103"/>
+    </row>
+    <row r="155" spans="1:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="156" spans="1:8" ht="23.4">
+      <c r="A156" s="234"/>
+      <c r="B156" s="270" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C156" s="428" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D156" s="428"/>
+      <c r="E156" s="429" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F156" s="430"/>
+      <c r="G156" s="431"/>
+      <c r="H156" s="33"/>
+    </row>
+    <row r="157" spans="1:8" ht="39" customHeight="1">
+      <c r="A157" s="235"/>
+      <c r="B157" s="43"/>
+      <c r="C157" s="233"/>
+      <c r="D157" s="233"/>
+      <c r="E157" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157" s="391"/>
+      <c r="G157" s="236" t="s">
+        <v>625</v>
+      </c>
+      <c r="H157" s="273"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="235"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="289" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E158" s="51"/>
+      <c r="F158" s="392"/>
+      <c r="G158" s="204"/>
+    </row>
+    <row r="159" spans="1:8" s="232" customFormat="1" ht="202.2" customHeight="1" thickBot="1">
+      <c r="A159" s="237" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B159" s="425" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C159" s="425"/>
+      <c r="D159" s="238" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E159" s="239"/>
+      <c r="F159" s="393"/>
+      <c r="G159" s="240" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="164" spans="1:8" ht="24" thickBot="1">
+      <c r="B164" s="288" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C164" s="421" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D164" s="422"/>
+      <c r="E164" s="423" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F164" s="424"/>
+      <c r="G164" s="424"/>
+      <c r="H164" s="213" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="21">
+      <c r="B165" s="285" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C165" s="191" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D165" s="191" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E165" s="193" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="278"/>
+      <c r="G165" s="278" t="s">
+        <v>625</v>
+      </c>
+      <c r="H165" s="280">
+        <v>8703.0716723549485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="B166" s="245"/>
+      <c r="C166" s="93"/>
+      <c r="D166" s="248"/>
+      <c r="E166" s="150"/>
+      <c r="F166" s="150"/>
+      <c r="G166" s="150"/>
+      <c r="H166" s="280"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="B167" s="245" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C167" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="250" t="s">
+        <v>625</v>
+      </c>
+      <c r="E167" s="198" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="198"/>
+      <c r="G167" s="96" t="s">
+        <v>634</v>
+      </c>
+      <c r="H167" s="280">
+        <v>87.030716723549489</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="B168" s="245" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C168" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="250" t="s">
+        <v>625</v>
+      </c>
+      <c r="E168" s="198" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F168" s="198"/>
+      <c r="G168" s="198" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H168" s="280">
+        <v>87.030716723549489</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="18.600000000000001" thickBot="1">
+      <c r="B169" s="251" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C169" s="252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="257" t="s">
+        <v>625</v>
+      </c>
+      <c r="E169" s="274" t="s">
+        <v>604</v>
+      </c>
+      <c r="F169" s="274"/>
+      <c r="G169" s="279" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H169" s="213">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="H170" s="275"/>
+    </row>
+    <row r="171" spans="1:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="172" spans="1:8" ht="21.6" thickBot="1">
+      <c r="A172" s="455" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B172" s="456"/>
+      <c r="C172" s="272" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D172" s="258" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="174" spans="1:8" ht="24" thickBot="1">
+      <c r="B174" s="256"/>
+      <c r="C174" s="421" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D174" s="451"/>
+      <c r="E174" s="452" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F174" s="452"/>
+      <c r="G174" s="452"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="B175" s="271" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C175" s="191" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D175" s="282" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E175" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F175" s="85"/>
+      <c r="G175" s="85" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" s="245"/>
+      <c r="C176" s="93"/>
+      <c r="D176" s="248"/>
+      <c r="E176" s="51"/>
+      <c r="F176" s="51"/>
+      <c r="G176" s="51"/>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="245" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C177" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="250" t="s">
+        <v>625</v>
+      </c>
+      <c r="E177" s="212" t="s">
+        <v>604</v>
+      </c>
+      <c r="F177" s="212"/>
+      <c r="G177" s="84" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="245" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C178" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="250" t="s">
+        <v>625</v>
+      </c>
+      <c r="E178" s="212" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="212"/>
+      <c r="G178" s="212" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B179" s="286" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C179" s="308" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="287" t="s">
+        <v>625</v>
+      </c>
+      <c r="E179" s="212" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F179" s="212"/>
+      <c r="G179" s="51" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" ht="33.6" customHeight="1">
+      <c r="B180" s="92"/>
+      <c r="C180" s="250"/>
+      <c r="D180" s="250"/>
+      <c r="E180" s="283"/>
+      <c r="F180" s="283"/>
+      <c r="G180" s="284"/>
+    </row>
+    <row r="184" spans="2:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="185" spans="2:7" ht="32.4" customHeight="1" thickBot="1">
+      <c r="C185" s="272" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D185" s="281" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" ht="36.6" thickBot="1">
+      <c r="B186" s="449" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C186" s="209" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D186" s="209" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E186" s="444" t="s">
+        <v>590</v>
+      </c>
+      <c r="F186" s="394"/>
+      <c r="G186" s="447" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" ht="36.6" thickBot="1">
+      <c r="B187" s="450"/>
+      <c r="C187" s="209" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D187" s="209" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E187" s="445"/>
+      <c r="F187" s="395"/>
+      <c r="G187" s="448"/>
+    </row>
+    <row r="188" spans="2:7" ht="36.6" thickBot="1">
+      <c r="B188" s="450"/>
+      <c r="C188" s="209" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D188" s="209" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E188" s="445"/>
+      <c r="F188" s="395"/>
+      <c r="G188" s="448"/>
+    </row>
+    <row r="189" spans="2:7" ht="36">
+      <c r="B189" s="450"/>
+      <c r="C189" s="209" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D189" s="209" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E189" s="446"/>
+      <c r="F189" s="396"/>
+      <c r="G189" s="448"/>
+    </row>
+    <row r="190" spans="2:7" ht="23.4">
+      <c r="B190" s="210"/>
+      <c r="C190" s="90"/>
+      <c r="D190" s="90"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="397"/>
+      <c r="G190" s="205"/>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="211" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C191" s="199" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D191" s="199" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E191" s="58" t="s">
+        <v>659</v>
+      </c>
+      <c r="F191" s="397"/>
+      <c r="G191" s="204" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="203"/>
+      <c r="C192" s="199"/>
+      <c r="D192" s="199"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="397"/>
+      <c r="G192" s="204"/>
+    </row>
+    <row r="193" spans="2:8" ht="37.5" customHeight="1">
+      <c r="B193" s="413" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C193" s="411" t="s">
+        <v>590</v>
+      </c>
+      <c r="D193" s="411" t="s">
+        <v>591</v>
+      </c>
+      <c r="E193" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" s="397"/>
+      <c r="G193" s="205" t="s">
+        <v>657</v>
+      </c>
+      <c r="H193" s="231">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" ht="18.600000000000001" thickBot="1">
+      <c r="B194" s="414"/>
+      <c r="C194" s="412"/>
+      <c r="D194" s="412"/>
+      <c r="E194" s="207" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" s="398"/>
+      <c r="G194" s="208" t="s">
+        <v>658</v>
+      </c>
+      <c r="H194" s="231">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8">
+      <c r="B195" s="201"/>
+      <c r="C195" s="202"/>
+      <c r="D195" s="202"/>
+      <c r="E195" s="198"/>
+      <c r="F195" s="198"/>
+      <c r="G195" s="198"/>
+    </row>
+    <row r="196" spans="2:8">
+      <c r="B196" s="201"/>
+      <c r="C196" s="202"/>
+      <c r="D196" s="202"/>
+      <c r="E196" s="198"/>
+      <c r="F196" s="198"/>
+      <c r="G196" s="198"/>
+    </row>
+    <row r="197" spans="2:8">
+      <c r="B197" s="201"/>
+      <c r="C197" s="202"/>
+      <c r="D197" s="202"/>
+      <c r="E197" s="198"/>
+      <c r="F197" s="198"/>
+      <c r="G197" s="198"/>
+    </row>
+    <row r="198" spans="2:8">
+      <c r="B198" s="201"/>
+      <c r="C198" s="202"/>
+      <c r="D198" s="202"/>
+      <c r="E198" s="198"/>
+      <c r="F198" s="198"/>
+      <c r="G198" s="198"/>
+    </row>
+    <row r="199" spans="2:8">
+      <c r="B199" s="201"/>
+      <c r="C199" s="202"/>
+      <c r="D199" s="202"/>
+      <c r="E199" s="198"/>
+      <c r="F199" s="198"/>
+      <c r="G199" s="198"/>
+    </row>
+    <row r="200" spans="2:8">
+      <c r="B200" s="201"/>
+      <c r="C200" s="202"/>
+      <c r="D200" s="202"/>
+      <c r="E200" s="198"/>
+      <c r="F200" s="198"/>
+      <c r="G200" s="198"/>
+    </row>
+    <row r="201" spans="2:8" ht="62.4">
+      <c r="B201" s="317" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C201" s="415" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D201" s="415"/>
+      <c r="E201" s="323" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F201" s="399"/>
+      <c r="G201"/>
+    </row>
+    <row r="202" spans="2:8" ht="31.2">
+      <c r="B202" s="318" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C202" s="319" t="s">
+        <v>167</v>
+      </c>
+      <c r="D202" s="320" t="s">
+        <v>271</v>
+      </c>
+      <c r="E202" s="416" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F202" s="346"/>
+      <c r="G202" s="410" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" ht="31.2">
+      <c r="B203" s="318" t="s">
         <v>1923</v>
       </c>
-      <c r="F4" s="322"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="407"/>
-      <c r="C5" s="321" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D5" s="321" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E5" s="410"/>
-      <c r="F5" s="323"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="407"/>
-      <c r="C6" s="324" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D6" s="321" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E6" s="410"/>
-      <c r="F6" s="325"/>
-    </row>
-    <row r="7" spans="2:12" ht="36">
-      <c r="B7" s="408"/>
-      <c r="C7" s="321" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D7" s="321" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E7" s="410"/>
-      <c r="F7" s="325"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="42"/>
-      <c r="C8" s="326"/>
-      <c r="D8" s="326"/>
-      <c r="E8" s="411"/>
-      <c r="F8" s="327"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="42"/>
-      <c r="C9" s="321"/>
-      <c r="D9" s="321"/>
-      <c r="E9" s="322"/>
-      <c r="F9" s="322"/>
-    </row>
-    <row r="10" spans="2:12" s="40" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B10" s="328"/>
-      <c r="C10" s="329"/>
-      <c r="D10" s="329"/>
-      <c r="E10" s="330"/>
-      <c r="F10" s="330"/>
-    </row>
-    <row r="11" spans="2:12" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B11" s="171"/>
-      <c r="C11" s="319"/>
-      <c r="D11" s="320"/>
-      <c r="E11" s="332" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F11" s="332" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B12" s="423" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C12" s="321" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D12" s="321" t="s">
-        <v>1902</v>
-      </c>
-      <c r="E12" s="322"/>
-      <c r="F12" s="422" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="423"/>
-      <c r="C13" s="321" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D13" s="321" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E13" s="322"/>
-      <c r="F13" s="422"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="423"/>
-      <c r="C14" s="321" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D14" s="321" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E14" s="322"/>
-      <c r="F14" s="422"/>
-    </row>
-    <row r="15" spans="2:12" ht="52.5" customHeight="1">
-      <c r="B15" s="423"/>
-      <c r="C15" s="333" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D15" s="333" t="s">
-        <v>1906</v>
-      </c>
-      <c r="E15" s="322"/>
-      <c r="F15" s="422"/>
-      <c r="G15" s="399"/>
-      <c r="H15" s="399"/>
-      <c r="I15" s="399"/>
-      <c r="J15" s="371" t="str">
-        <f>'План счетов'!B336</f>
-        <v xml:space="preserve">Аъзоҳаққии иттифоқи касаба барои пардохт - ба иттифоқи касабаи муассиса </v>
-      </c>
-      <c r="K15" s="371"/>
-      <c r="L15" s="371"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="C16" s="56"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="60"/>
-    </row>
-    <row r="18" spans="2:6" s="40" customFormat="1">
-      <c r="B18" s="43"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-    </row>
-    <row r="19" spans="2:6" ht="18.600000000000001" thickBot="1"/>
-    <row r="20" spans="2:6" ht="37.200000000000003" thickBot="1">
-      <c r="B20" s="380" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="331" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F20" s="331" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="381"/>
-      <c r="C21" s="64" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E21" s="372" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="63"/>
-    </row>
-    <row r="22" spans="2:6" ht="36">
-      <c r="B22" s="381"/>
-      <c r="C22" s="64" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>1910</v>
-      </c>
-      <c r="E22" s="373"/>
-      <c r="F22" s="63"/>
-    </row>
-    <row r="23" spans="2:6" ht="36">
-      <c r="B23" s="381"/>
-      <c r="C23" s="64" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E23" s="373"/>
-      <c r="F23" s="63"/>
-    </row>
-    <row r="24" spans="2:6" ht="36">
-      <c r="B24" s="381"/>
-      <c r="C24" s="64" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E24" s="373"/>
-      <c r="F24" s="63"/>
-    </row>
-    <row r="25" spans="2:6" ht="36">
-      <c r="B25" s="381"/>
-      <c r="C25" s="64" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E25" s="374"/>
-      <c r="F25" s="207"/>
-    </row>
-    <row r="26" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B26" s="382"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-    </row>
-    <row r="27" spans="2:6" s="40" customFormat="1" ht="37.200000000000003" thickBot="1">
-      <c r="B27" s="43"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="331" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F27" s="331" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B28" s="388" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>1915</v>
-      </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-    </row>
-    <row r="29" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B29" s="389"/>
-      <c r="C29" s="86" t="s">
-        <v>1916</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E29" s="198"/>
-      <c r="F29" s="386" t="str">
-        <f>E21</f>
-        <v>«1 11 110»</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B30" s="389"/>
-      <c r="C30" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>1918</v>
-      </c>
-      <c r="E30" s="198"/>
-      <c r="F30" s="387"/>
-    </row>
-    <row r="31" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B31" s="389"/>
-      <c r="C31" s="65" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E31" s="198"/>
-      <c r="F31" s="387"/>
-    </row>
-    <row r="32" spans="2:6" s="40" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B32" s="43"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="2:6" ht="37.200000000000003" thickBot="1">
-      <c r="B33" s="416" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="331" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F33" s="331" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B34" s="416"/>
-      <c r="C34" s="44" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="E34" s="96"/>
-      <c r="F34" s="417" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B35" s="416"/>
-      <c r="C35" s="95" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="418"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="416"/>
-      <c r="C36" s="44" t="s">
-        <v>1809</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="418"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="416"/>
-      <c r="C37" s="100" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="418"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="416"/>
-      <c r="C38" s="44" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="418"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="416"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="418"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="416"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="418"/>
-    </row>
-    <row r="41" spans="2:6" ht="36">
-      <c r="B41" s="416"/>
-      <c r="C41" s="44" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D41" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="419"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="E42" s="71"/>
-    </row>
-    <row r="48" spans="2:6" ht="44.25" customHeight="1">
-      <c r="C48" s="205" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D48" s="206"/>
-      <c r="E48" s="154" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F48" s="155" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="334" customFormat="1" ht="39.6" customHeight="1">
-      <c r="B49" s="342"/>
-      <c r="C49" s="343" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D49" s="344"/>
-      <c r="E49" s="345"/>
-      <c r="F49" s="349" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="42">
-      <c r="B50" s="44"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="346"/>
-      <c r="F50" s="346" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18.600000000000001" thickBot="1"/>
-    <row r="54" spans="1:9" ht="69" customHeight="1">
-      <c r="B54" s="188"/>
-      <c r="D54" s="190" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E54" s="191"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="193"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-    </row>
-    <row r="55" spans="1:9" ht="36">
-      <c r="A55" s="36"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="194"/>
-      <c r="D55" s="181"/>
-      <c r="E55" s="151" t="s">
-        <v>1834</v>
-      </c>
-      <c r="F55" s="151" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G55" s="195" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="25.8">
-      <c r="A56" s="36"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="194"/>
-      <c r="D56" s="356" t="s">
-        <v>1832</v>
-      </c>
-      <c r="E56" s="349" t="s">
-        <v>1937</v>
-      </c>
-      <c r="F56" s="351" t="s">
-        <v>590</v>
-      </c>
-      <c r="G56" s="353" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="70.8" thickBot="1">
-      <c r="A57" s="36"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="196"/>
-      <c r="D57" s="357" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E57" s="226" t="s">
-        <v>1938</v>
-      </c>
-      <c r="F57" s="354" t="s">
-        <v>591</v>
-      </c>
-      <c r="G57" s="355" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="35"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="177"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="180"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="35"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="189"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="177"/>
-      <c r="F59" s="179"/>
-      <c r="G59" s="180"/>
-    </row>
-    <row r="60" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="A60" s="35"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="106"/>
-    </row>
-    <row r="61" spans="1:9" ht="55.5" customHeight="1" thickBot="1">
-      <c r="B61" s="101"/>
-      <c r="C61" s="413" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D61" s="414"/>
-      <c r="E61" s="415"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="106"/>
-    </row>
-    <row r="62" spans="1:9" ht="36">
-      <c r="A62" s="35"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="92" t="s">
-        <v>1935</v>
-      </c>
-      <c r="F62" s="92" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G62" s="96" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="46.8">
-      <c r="A63" s="35"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="362" t="s">
-        <v>1832</v>
-      </c>
-      <c r="E63" s="358" t="s">
-        <v>1931</v>
-      </c>
-      <c r="F63" s="359" t="s">
-        <v>590</v>
-      </c>
-      <c r="G63" s="359" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="93.6">
-      <c r="A64" s="35"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="363" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E64" s="359" t="s">
-        <v>1932</v>
-      </c>
-      <c r="F64" s="360" t="s">
-        <v>591</v>
-      </c>
-      <c r="G64" s="361" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="35"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="106"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="35"/>
-      <c r="B66" s="101"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="106"/>
-    </row>
-    <row r="67" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A67" s="35"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="106"/>
-    </row>
-    <row r="68" spans="1:7" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A68" s="35"/>
-      <c r="B68" s="101"/>
-      <c r="C68" s="413" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D68" s="414"/>
-      <c r="E68" s="415"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="106"/>
-    </row>
-    <row r="69" spans="1:7" ht="36">
-      <c r="A69" s="35"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="92" t="s">
-        <v>1834</v>
-      </c>
-      <c r="F69" s="92" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G69" s="96" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="36">
-      <c r="A70" s="35"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="227" t="s">
-        <v>1832</v>
-      </c>
-      <c r="E70" s="225" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F70" s="210" t="s">
-        <v>590</v>
-      </c>
-      <c r="G70" s="210" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="72">
-      <c r="A71" s="35"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="347"/>
-      <c r="D71" s="424" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E71" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="F71" s="390" t="s">
-        <v>591</v>
-      </c>
-      <c r="G71" s="402" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="46.8">
-      <c r="A72" s="35"/>
-      <c r="B72" s="101"/>
-      <c r="C72" s="102"/>
-      <c r="D72" s="424"/>
-      <c r="E72" s="348" t="s">
-        <v>402</v>
-      </c>
-      <c r="F72" s="391"/>
-      <c r="G72" s="403"/>
-    </row>
-    <row r="73" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A73" s="35"/>
-      <c r="B73" s="101"/>
-      <c r="C73" s="102"/>
-      <c r="D73" s="103"/>
-      <c r="E73" s="104"/>
-      <c r="F73" s="105"/>
-      <c r="G73" s="106"/>
-    </row>
-    <row r="74" spans="1:7" ht="21">
-      <c r="B74" s="171"/>
-      <c r="C74" s="163" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D74" s="182"/>
-      <c r="E74" s="183"/>
-      <c r="F74" s="172"/>
-      <c r="G74" s="173"/>
-    </row>
-    <row r="75" spans="1:7" ht="21">
-      <c r="B75" s="171"/>
-      <c r="C75" s="184"/>
-      <c r="D75" s="170"/>
-      <c r="E75" s="185"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="173"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" s="174"/>
-      <c r="C76" s="228"/>
-      <c r="D76" s="151" t="s">
-        <v>1834</v>
-      </c>
-      <c r="E76" s="186" t="s">
-        <v>1847</v>
-      </c>
-      <c r="F76" s="175"/>
-      <c r="G76" s="176"/>
-    </row>
-    <row r="77" spans="1:7" ht="36.6" customHeight="1">
-      <c r="B77" s="174"/>
-      <c r="C77" s="229" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D77" s="350" t="s">
-        <v>326</v>
-      </c>
-      <c r="E77" s="352" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F77" s="175"/>
-      <c r="G77" s="177"/>
-    </row>
-    <row r="78" spans="1:7" ht="108.6" thickBot="1">
-      <c r="B78" s="174"/>
-      <c r="C78" s="230" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D78" s="226" t="s">
-        <v>327</v>
-      </c>
-      <c r="E78" s="187" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F78" s="175"/>
-      <c r="G78" s="180"/>
-    </row>
-    <row r="80" spans="1:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="81" spans="2:7" ht="21">
-      <c r="C81" s="163" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D81" s="164"/>
-      <c r="E81" s="159"/>
-      <c r="F81" s="159"/>
-      <c r="G81" s="35"/>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="101"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="158"/>
-      <c r="E82" s="160"/>
-      <c r="F82" s="160"/>
-      <c r="G82" s="161"/>
-    </row>
-    <row r="83" spans="2:7" ht="25.95" customHeight="1">
-      <c r="B83" s="101"/>
-      <c r="C83" s="231" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D83" s="233" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
-      <c r="G83" s="104"/>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="101"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="104"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="106"/>
-    </row>
-    <row r="85" spans="2:7" ht="36">
-      <c r="B85" s="101"/>
-      <c r="C85" s="231" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D85" s="232" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E85" s="159"/>
-      <c r="F85" s="159"/>
-      <c r="G85" s="35"/>
-    </row>
-    <row r="86" spans="2:7" ht="25.2" customHeight="1" thickBot="1">
-      <c r="B86" s="101"/>
-      <c r="C86" s="168" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D86" s="169" t="s">
-        <v>1851</v>
-      </c>
-      <c r="E86" s="159"/>
-      <c r="F86" s="159"/>
-      <c r="G86" s="35"/>
-    </row>
-    <row r="88" spans="2:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="89" spans="2:7" ht="21">
-      <c r="B89" s="101"/>
-      <c r="C89" s="163" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D89" s="164"/>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90" s="101"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="158"/>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="101"/>
-      <c r="C91" s="231" t="s">
-        <v>1856</v>
-      </c>
-      <c r="D91" s="233"/>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="101"/>
-      <c r="C92" s="231" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D92" s="234"/>
-    </row>
-    <row r="93" spans="2:7" ht="36">
-      <c r="B93" s="101"/>
-      <c r="C93" s="231" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D93" s="232" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B94" s="101"/>
-      <c r="C94" s="168" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D94" s="169" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="96" spans="2:7" ht="21">
-      <c r="C96" s="235" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D96" s="236"/>
-    </row>
-    <row r="97" spans="2:5" customFormat="1">
-      <c r="B97" s="41"/>
-      <c r="C97" s="237"/>
-      <c r="D97" s="238"/>
-      <c r="E97" s="50"/>
-    </row>
-    <row r="98" spans="2:5" customFormat="1">
-      <c r="B98" s="41"/>
-      <c r="C98" s="231" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D98" s="233"/>
-      <c r="E98" s="50"/>
-    </row>
-    <row r="99" spans="2:5" customFormat="1">
-      <c r="B99" s="41"/>
-      <c r="C99" s="231" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D99" s="233"/>
-      <c r="E99" s="50"/>
-    </row>
-    <row r="100" spans="2:5" customFormat="1" ht="36">
-      <c r="B100" s="41"/>
-      <c r="C100" s="231" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D100" s="232" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E100" s="50"/>
-    </row>
-    <row r="101" spans="2:5" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B101" s="41"/>
-      <c r="C101" s="168" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D101" s="169" t="s">
-        <v>1851</v>
-      </c>
-      <c r="E101" s="50"/>
-    </row>
-    <row r="104" spans="2:5" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B104" s="41"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="50"/>
-    </row>
-    <row r="105" spans="2:5" customFormat="1" ht="54">
-      <c r="B105" s="251" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C105" s="252"/>
-      <c r="D105" s="253" t="s">
-        <v>1834</v>
-      </c>
-      <c r="E105" s="254" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" customFormat="1">
-      <c r="B106" s="255"/>
-      <c r="C106" s="178"/>
-      <c r="D106" s="258"/>
-      <c r="E106" s="259"/>
-    </row>
-    <row r="107" spans="2:5" customFormat="1" ht="29.4" customHeight="1">
-      <c r="B107" s="420" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C107" s="263"/>
-      <c r="D107" s="264" t="s">
-        <v>359</v>
-      </c>
-      <c r="E107" s="224" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="B108" s="421"/>
-      <c r="C108" s="197"/>
-      <c r="D108" s="216" t="s">
-        <v>360</v>
-      </c>
-      <c r="E108" s="257" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" customFormat="1">
-      <c r="B109" s="255"/>
-      <c r="C109" s="178"/>
-      <c r="D109" s="258"/>
-      <c r="E109" s="259"/>
-    </row>
-    <row r="110" spans="2:5" customFormat="1">
-      <c r="B110" s="255"/>
-      <c r="C110" s="239" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D110" s="256" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E110" s="224" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="B111" s="261"/>
-      <c r="C111" s="240" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D111" s="265" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E111" s="257" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" customFormat="1">
-      <c r="B112" s="41"/>
-      <c r="C112" s="178"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="177"/>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="C113" s="178"/>
-      <c r="E113" s="177"/>
-    </row>
-    <row r="116" spans="2:6" ht="18.600000000000001" thickBot="1"/>
-    <row r="117" spans="2:6" ht="24" thickBot="1">
-      <c r="B117" s="204" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C117" s="375" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D117" s="376"/>
-      <c r="E117" s="377" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F117" s="412"/>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="C118" s="200" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D118" s="200" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E118" s="202" t="s">
-        <v>306</v>
-      </c>
-      <c r="F118" s="202" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="C119" s="98"/>
-      <c r="D119" s="98"/>
-      <c r="E119" s="202"/>
-      <c r="F119" s="202"/>
-    </row>
-    <row r="124" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="E124" s="199"/>
-      <c r="F124" s="199"/>
-    </row>
-    <row r="125" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B125" s="203" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C125" s="375" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D125" s="376"/>
-      <c r="E125" s="377" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F125" s="412"/>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="C126" s="200"/>
-      <c r="D126" s="200"/>
-      <c r="E126" s="202" t="s">
-        <v>302</v>
-      </c>
-      <c r="F126" s="202" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="C127" s="98"/>
-      <c r="D127" s="98"/>
-      <c r="E127" s="202" t="s">
-        <v>304</v>
-      </c>
-      <c r="F127" s="202" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="C128" s="98"/>
-      <c r="D128" s="98"/>
-      <c r="E128" s="202"/>
-      <c r="F128" s="202"/>
-    </row>
-    <row r="129" spans="3:6" customFormat="1">
-      <c r="C129" s="98"/>
-      <c r="D129" s="98"/>
-      <c r="E129" s="202" t="s">
-        <v>308</v>
-      </c>
-      <c r="F129" s="202" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="130" spans="3:6" customFormat="1">
-      <c r="C130" s="98"/>
-      <c r="D130" s="98"/>
-      <c r="E130" s="202" t="s">
-        <v>310</v>
-      </c>
-      <c r="F130" s="202" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="131" spans="3:6" customFormat="1">
-      <c r="C131" s="98"/>
-      <c r="D131" s="98"/>
-      <c r="E131" s="202" t="s">
-        <v>312</v>
-      </c>
-      <c r="F131" s="202" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="132" spans="3:6" customFormat="1">
-      <c r="C132" s="98"/>
-      <c r="D132" s="98"/>
-      <c r="E132" s="202" t="s">
-        <v>316</v>
-      </c>
-      <c r="F132" s="202" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="133" spans="3:6" customFormat="1">
-      <c r="C133" s="98"/>
-      <c r="D133" s="98"/>
-      <c r="E133" s="202" t="s">
-        <v>318</v>
-      </c>
-      <c r="F133" s="202" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="134" spans="3:6" customFormat="1">
-      <c r="C134" s="98"/>
-      <c r="D134" s="98"/>
-      <c r="E134" s="202" t="s">
-        <v>320</v>
-      </c>
-      <c r="F134" s="202" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="135" spans="3:6" customFormat="1">
-      <c r="C135" s="98"/>
-      <c r="D135" s="98"/>
-      <c r="E135" s="202" t="s">
-        <v>322</v>
-      </c>
-      <c r="F135" s="202" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="136" spans="3:6" customFormat="1">
-      <c r="C136" s="98"/>
-      <c r="D136" s="98"/>
-      <c r="E136" s="202"/>
-      <c r="F136" s="202"/>
-    </row>
-    <row r="137" spans="3:6" customFormat="1">
-      <c r="C137" s="98"/>
-      <c r="D137" s="98"/>
-      <c r="E137" s="202" t="s">
-        <v>326</v>
-      </c>
-      <c r="F137" s="202" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="3:6" customFormat="1">
-      <c r="C138" s="98"/>
-      <c r="D138" s="98"/>
-      <c r="E138" s="202"/>
-      <c r="F138" s="202"/>
-    </row>
-    <row r="139" spans="3:6" customFormat="1">
-      <c r="C139" s="98"/>
-      <c r="D139" s="98"/>
-      <c r="E139" s="201"/>
-      <c r="F139" s="201"/>
-    </row>
-    <row r="140" spans="3:6" customFormat="1">
-      <c r="C140" s="98"/>
-      <c r="D140" s="98"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="53"/>
-    </row>
-    <row r="141" spans="3:6" customFormat="1">
-      <c r="C141" s="98"/>
-      <c r="D141" s="98"/>
-      <c r="E141" s="53"/>
-      <c r="F141" s="53"/>
-    </row>
-    <row r="142" spans="3:6" customFormat="1">
-      <c r="C142" s="98"/>
-      <c r="D142" s="98"/>
-      <c r="E142" s="53"/>
-      <c r="F142" s="53"/>
-    </row>
-    <row r="146" spans="1:7" s="108" customFormat="1">
-      <c r="B146" s="109"/>
-      <c r="C146" s="110"/>
-      <c r="D146" s="111"/>
-      <c r="E146" s="112"/>
-      <c r="F146" s="112"/>
-    </row>
-    <row r="149" spans="1:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="150" spans="1:7" ht="23.4">
-      <c r="A150" s="244"/>
-      <c r="B150" s="280" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C150" s="383" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D150" s="383"/>
-      <c r="E150" s="384" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F150" s="385"/>
-      <c r="G150" s="33"/>
-    </row>
-    <row r="151" spans="1:7" ht="39" customHeight="1">
-      <c r="A151" s="245"/>
-      <c r="B151" s="44"/>
-      <c r="C151" s="243"/>
-      <c r="D151" s="243"/>
-      <c r="E151" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" s="246" t="s">
-        <v>625</v>
-      </c>
-      <c r="G151" s="283"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="245"/>
-      <c r="B152" s="44"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="299" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E152" s="53"/>
-      <c r="F152" s="214"/>
-    </row>
-    <row r="153" spans="1:7" s="242" customFormat="1" ht="202.2" customHeight="1" thickBot="1">
-      <c r="A153" s="247" t="s">
-        <v>1872</v>
-      </c>
-      <c r="B153" s="379" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C153" s="379"/>
-      <c r="D153" s="248" t="s">
-        <v>1871</v>
-      </c>
-      <c r="E153" s="249"/>
-      <c r="F153" s="250" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="158" spans="1:7" ht="24" thickBot="1">
-      <c r="B158" s="298" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C158" s="375" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D158" s="376"/>
-      <c r="E158" s="377" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F158" s="378"/>
-      <c r="G158" s="223" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="21">
-      <c r="B159" s="295" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C159" s="200" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D159" s="200" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E159" s="202" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" s="288" t="s">
-        <v>625</v>
-      </c>
-      <c r="G159" s="290">
-        <v>8703.0716723549485</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="B160" s="255"/>
-      <c r="C160" s="102"/>
-      <c r="D160" s="258"/>
-      <c r="E160" s="159"/>
-      <c r="F160" s="159"/>
-      <c r="G160" s="290"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="B161" s="255" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C161" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" s="260" t="s">
-        <v>625</v>
-      </c>
-      <c r="E161" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="G161" s="290">
-        <v>87.030716723549489</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="B162" s="255" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C162" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D162" s="260" t="s">
-        <v>625</v>
-      </c>
-      <c r="E162" s="208" t="s">
-        <v>1891</v>
-      </c>
-      <c r="F162" s="208" t="s">
-        <v>1785</v>
-      </c>
-      <c r="G162" s="290">
-        <v>87.030716723549489</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="B163" s="261" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C163" s="262" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="267" t="s">
-        <v>625</v>
-      </c>
-      <c r="E163" s="284" t="s">
-        <v>604</v>
-      </c>
-      <c r="F163" s="289" t="s">
-        <v>1885</v>
-      </c>
-      <c r="G163" s="223">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="G164" s="285"/>
-    </row>
-    <row r="165" spans="1:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="166" spans="1:7" ht="21.6" thickBot="1">
-      <c r="A166" s="404" t="s">
-        <v>1845</v>
-      </c>
-      <c r="B166" s="405"/>
-      <c r="C166" s="282" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D166" s="268" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="168" spans="1:7" ht="24" thickBot="1">
-      <c r="B168" s="266"/>
-      <c r="C168" s="375" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D168" s="400"/>
-      <c r="E168" s="401" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F168" s="401"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="B169" s="281" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C169" s="200" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D169" s="292" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E169" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F169" s="94" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="B170" s="255"/>
-      <c r="C170" s="102"/>
-      <c r="D170" s="258"/>
-      <c r="E170" s="53"/>
-      <c r="F170" s="53"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="B171" s="255" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C171" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="260" t="s">
-        <v>625</v>
-      </c>
-      <c r="E171" s="222" t="s">
-        <v>604</v>
-      </c>
-      <c r="F171" s="93" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="B172" s="255" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C172" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D172" s="260" t="s">
-        <v>625</v>
-      </c>
-      <c r="E172" s="222" t="s">
-        <v>8</v>
-      </c>
-      <c r="F172" s="222" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="B173" s="296" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C173" s="318" t="s">
-        <v>5</v>
-      </c>
-      <c r="D173" s="297" t="s">
-        <v>625</v>
-      </c>
-      <c r="E173" s="222" t="s">
-        <v>1891</v>
-      </c>
-      <c r="F173" s="53" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="33.6" customHeight="1">
-      <c r="B174" s="101"/>
-      <c r="C174" s="260"/>
-      <c r="D174" s="260"/>
-      <c r="E174" s="293"/>
-      <c r="F174" s="294"/>
-    </row>
-    <row r="178" spans="2:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="179" spans="2:7" ht="32.4" customHeight="1" thickBot="1">
-      <c r="C179" s="282" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D179" s="291" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7" ht="36.6" thickBot="1">
-      <c r="B180" s="397" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C180" s="219" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D180" s="219" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E180" s="392" t="s">
-        <v>590</v>
-      </c>
-      <c r="F180" s="395" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7" ht="36.6" thickBot="1">
-      <c r="B181" s="398"/>
-      <c r="C181" s="219" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D181" s="219" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E181" s="393"/>
-      <c r="F181" s="396"/>
-    </row>
-    <row r="182" spans="2:7" ht="36.6" thickBot="1">
-      <c r="B182" s="398"/>
-      <c r="C182" s="219" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D182" s="219" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E182" s="393"/>
-      <c r="F182" s="396"/>
-    </row>
-    <row r="183" spans="2:7" ht="36">
-      <c r="B183" s="398"/>
-      <c r="C183" s="219" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D183" s="219" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E183" s="394"/>
-      <c r="F183" s="396"/>
-    </row>
-    <row r="184" spans="2:7" ht="23.4">
-      <c r="B184" s="220"/>
-      <c r="C184" s="99"/>
-      <c r="D184" s="99"/>
-      <c r="E184" s="63"/>
-      <c r="F184" s="215"/>
-    </row>
-    <row r="185" spans="2:7">
-      <c r="B185" s="221" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C185" s="209" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D185" s="209" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E185" s="63" t="s">
-        <v>659</v>
-      </c>
-      <c r="F185" s="214" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7">
-      <c r="B186" s="213"/>
-      <c r="C186" s="209"/>
-      <c r="D186" s="209"/>
-      <c r="E186" s="63"/>
-      <c r="F186" s="214"/>
-    </row>
-    <row r="187" spans="2:7" ht="37.5" customHeight="1">
-      <c r="B187" s="367" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C187" s="365" t="s">
-        <v>590</v>
-      </c>
-      <c r="D187" s="365" t="s">
-        <v>591</v>
-      </c>
-      <c r="E187" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" s="215" t="s">
-        <v>657</v>
-      </c>
-      <c r="G187" s="241">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B188" s="368"/>
-      <c r="C188" s="366"/>
-      <c r="D188" s="366"/>
-      <c r="E188" s="217" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" s="218" t="s">
-        <v>658</v>
-      </c>
-      <c r="G188" s="241">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7">
-      <c r="B189" s="211"/>
-      <c r="C189" s="212"/>
-      <c r="D189" s="212"/>
-      <c r="E189" s="208"/>
-      <c r="F189" s="208"/>
-    </row>
-    <row r="190" spans="2:7">
-      <c r="B190" s="211"/>
-      <c r="C190" s="212"/>
-      <c r="D190" s="212"/>
-      <c r="E190" s="208"/>
-      <c r="F190" s="208"/>
-    </row>
-    <row r="191" spans="2:7">
-      <c r="B191" s="211"/>
-      <c r="C191" s="212"/>
-      <c r="D191" s="212"/>
-      <c r="E191" s="208"/>
-      <c r="F191" s="208"/>
-    </row>
-    <row r="192" spans="2:7">
-      <c r="B192" s="211"/>
-      <c r="C192" s="212"/>
-      <c r="D192" s="212"/>
-      <c r="E192" s="208"/>
-      <c r="F192" s="208"/>
-    </row>
-    <row r="193" spans="2:8">
-      <c r="B193" s="211"/>
-      <c r="C193" s="212"/>
-      <c r="D193" s="212"/>
-      <c r="E193" s="208"/>
-      <c r="F193" s="208"/>
-    </row>
-    <row r="194" spans="2:8">
-      <c r="B194" s="211"/>
-      <c r="C194" s="212"/>
-      <c r="D194" s="212"/>
-      <c r="E194" s="208"/>
-      <c r="F194" s="208"/>
-    </row>
-    <row r="195" spans="2:8" ht="62.4">
-      <c r="B195" s="335" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C195" s="369" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D195" s="369"/>
-      <c r="E195" s="341" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F195"/>
-    </row>
-    <row r="196" spans="2:8" ht="31.2">
-      <c r="B196" s="336" t="s">
+      <c r="C203" s="321" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D203" s="322" t="s">
         <v>1922</v>
       </c>
-      <c r="C196" s="337" t="s">
-        <v>167</v>
-      </c>
-      <c r="D196" s="338" t="s">
-        <v>271</v>
-      </c>
-      <c r="E196" s="370" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F196" s="364" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" ht="31.2">
-      <c r="B197" s="336" t="s">
+      <c r="E203" s="416"/>
+      <c r="F203" s="346"/>
+      <c r="G203" s="410"/>
+    </row>
+    <row r="204" spans="2:8" ht="31.2">
+      <c r="B204" s="318" t="s">
         <v>1924</v>
       </c>
-      <c r="C197" s="339" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D197" s="340" t="s">
-        <v>1923</v>
-      </c>
-      <c r="E197" s="370"/>
-      <c r="F197" s="364"/>
-    </row>
-    <row r="198" spans="2:8" ht="31.2">
-      <c r="B198" s="336" t="s">
+      <c r="C204" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="322" t="s">
         <v>1925</v>
       </c>
-      <c r="C198" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="D198" s="340" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E198" s="370"/>
-      <c r="F198" s="364"/>
-    </row>
-    <row r="199" spans="2:8">
-      <c r="B199" s="211"/>
-      <c r="C199" s="212"/>
-      <c r="D199" s="212"/>
-      <c r="E199" s="208"/>
-      <c r="F199" s="208"/>
-    </row>
-    <row r="200" spans="2:8">
-      <c r="B200" s="211"/>
-      <c r="C200" s="212"/>
-      <c r="D200" s="212"/>
-      <c r="E200" s="208"/>
-      <c r="F200" s="208"/>
-    </row>
-    <row r="201" spans="2:8">
-      <c r="B201" s="211"/>
-      <c r="C201" s="212"/>
-      <c r="D201" s="212"/>
-      <c r="E201" s="208"/>
-      <c r="F201" s="208"/>
-    </row>
-    <row r="202" spans="2:8">
-      <c r="B202" s="211"/>
-      <c r="C202" s="212"/>
-      <c r="D202" s="212"/>
-      <c r="E202" s="208"/>
-      <c r="F202" s="208"/>
-    </row>
-    <row r="203" spans="2:8">
-      <c r="B203" s="211"/>
-      <c r="C203" s="212"/>
-      <c r="D203" s="212"/>
-      <c r="E203" s="208"/>
-      <c r="F203" s="208"/>
-    </row>
-    <row r="204" spans="2:8">
-      <c r="B204" s="211"/>
-      <c r="C204" s="212"/>
-      <c r="D204" s="212"/>
-      <c r="E204" s="208"/>
-      <c r="F204" s="208"/>
+      <c r="E204" s="416"/>
+      <c r="F204" s="346"/>
+      <c r="G204" s="410"/>
     </row>
     <row r="205" spans="2:8">
-      <c r="B205" s="211"/>
-      <c r="C205" s="212"/>
-      <c r="D205" s="212"/>
-      <c r="E205" s="208"/>
-      <c r="F205" s="208"/>
+      <c r="B205" s="201"/>
+      <c r="C205" s="202"/>
+      <c r="D205" s="202"/>
+      <c r="E205" s="198"/>
+      <c r="F205" s="198"/>
+      <c r="G205" s="198"/>
+    </row>
+    <row r="206" spans="2:8">
+      <c r="B206" s="201"/>
+      <c r="C206" s="202"/>
+      <c r="D206" s="202"/>
+      <c r="E206" s="198"/>
+      <c r="F206" s="198"/>
+      <c r="G206" s="198"/>
     </row>
     <row r="207" spans="2:8">
-      <c r="H207" s="71"/>
-    </row>
-    <row r="209" spans="2:2" ht="57" customHeight="1">
-      <c r="B209"/>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210"/>
+      <c r="B207" s="201"/>
+      <c r="C207" s="202"/>
+      <c r="D207" s="202"/>
+      <c r="E207" s="198"/>
+      <c r="F207" s="198"/>
+      <c r="G207" s="198"/>
+    </row>
+    <row r="208" spans="2:8">
+      <c r="B208" s="201"/>
+      <c r="C208" s="202"/>
+      <c r="D208" s="202"/>
+      <c r="E208" s="198"/>
+      <c r="F208" s="198"/>
+      <c r="G208" s="198"/>
+    </row>
+    <row r="209" spans="2:9">
+      <c r="B209" s="201"/>
+      <c r="C209" s="202"/>
+      <c r="D209" s="202"/>
+      <c r="E209" s="198"/>
+      <c r="F209" s="198"/>
+      <c r="G209" s="198"/>
+    </row>
+    <row r="210" spans="2:9">
+      <c r="B210" s="201"/>
+      <c r="C210" s="202"/>
+      <c r="D210" s="202"/>
+      <c r="E210" s="198"/>
+      <c r="F210" s="198"/>
+      <c r="G210" s="198"/>
+    </row>
+    <row r="211" spans="2:9">
+      <c r="B211" s="201"/>
+      <c r="C211" s="202"/>
+      <c r="D211" s="202"/>
+      <c r="E211" s="198"/>
+      <c r="F211" s="198"/>
+      <c r="G211" s="198"/>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="I213" s="63"/>
+    </row>
+    <row r="215" spans="2:9" ht="57" customHeight="1">
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="B216"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="38">
+    <mergeCell ref="A172:B172"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="E4:E8"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="F34:F41"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E180:E183"/>
-    <mergeCell ref="F180:F183"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="G40:G47"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="G186:G189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:G156"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="G202:G204"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="E202:E204"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26000,7 +26659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -26020,217 +26679,217 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="20.399999999999999" customHeight="1">
-      <c r="B3" s="425" t="s">
+      <c r="B3" s="473" t="s">
         <v>1798</v>
       </c>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="425"/>
-      <c r="F3" s="425"/>
-      <c r="G3" s="425"/>
-      <c r="H3" s="425"/>
-      <c r="I3" s="425"/>
+      <c r="C3" s="473"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="473"/>
+      <c r="G3" s="473"/>
+      <c r="H3" s="473"/>
+      <c r="I3" s="473"/>
     </row>
     <row r="4" spans="1:10" ht="20.399999999999999" customHeight="1">
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="306"/>
-      <c r="I4" s="306"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+    </row>
+    <row r="5" spans="1:10" s="62" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="61" t="s">
         <v>1799</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="61" t="s">
         <v>1802</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="61" t="s">
         <v>1842</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="61" t="s">
         <v>1805</v>
       </c>
-      <c r="G5" s="309" t="s">
+      <c r="G5" s="299" t="s">
         <v>1887</v>
       </c>
-      <c r="H5" s="309" t="s">
+      <c r="H5" s="299" t="s">
         <v>1862</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="61" t="s">
         <v>1888</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="B6" s="68"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
-      <c r="G6" s="310">
+      <c r="G6" s="300">
         <v>0</v>
       </c>
-      <c r="H6" s="311" t="s">
+      <c r="H6" s="301" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="287">
+      <c r="I6" s="277">
         <f>F8</f>
         <v>919.99999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="153" customFormat="1" ht="43.2">
-      <c r="A7" s="305" t="s">
+    <row r="7" spans="1:10" s="144" customFormat="1" ht="43.2">
+      <c r="A7" s="295" t="s">
         <v>1893</v>
       </c>
-      <c r="B7" s="308" t="s">
+      <c r="B7" s="298" t="s">
         <v>1806</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="298" t="s">
         <v>1804</v>
       </c>
-      <c r="D7" s="308" t="s">
+      <c r="D7" s="298" t="s">
         <v>1843</v>
       </c>
-      <c r="E7" s="308" t="s">
+      <c r="E7" s="298" t="s">
         <v>1825</v>
       </c>
-      <c r="F7" s="286" t="s">
+      <c r="F7" s="276" t="s">
         <v>1878</v>
       </c>
-      <c r="G7" s="310">
+      <c r="G7" s="300">
         <v>0</v>
       </c>
-      <c r="H7" s="311" t="s">
+      <c r="H7" s="301" t="s">
         <v>625</v>
       </c>
-      <c r="I7" s="152"/>
-    </row>
-    <row r="8" spans="1:10" s="270" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A8" s="307"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="307">
+      <c r="I7" s="143"/>
+    </row>
+    <row r="8" spans="1:10" s="260" customFormat="1" ht="31.95" customHeight="1">
+      <c r="A8" s="297"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="297">
         <v>4600</v>
       </c>
-      <c r="D8" s="274">
+      <c r="D8" s="264">
         <f>(C8/21)*70%</f>
         <v>153.33333333333331</v>
       </c>
-      <c r="E8" s="275">
+      <c r="E8" s="265">
         <f>D8*6</f>
         <v>919.99999999999989</v>
       </c>
-      <c r="F8" s="275">
+      <c r="F8" s="265">
         <f>E8</f>
         <v>919.99999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="35" customFormat="1">
-      <c r="B9" s="126"/>
+      <c r="B9" s="117"/>
     </row>
     <row r="10" spans="1:10" s="35" customFormat="1">
-      <c r="B10" s="126"/>
+      <c r="B10" s="117"/>
     </row>
     <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="61" t="s">
         <v>1799</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="61" t="s">
         <v>1802</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="E11" s="269" t="s">
+      <c r="E11" s="259" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="153" customFormat="1" ht="43.2">
-      <c r="A12" s="304" t="s">
+    <row r="12" spans="1:10" s="144" customFormat="1" ht="43.2">
+      <c r="A12" s="294" t="s">
         <v>1780</v>
       </c>
-      <c r="B12" s="308" t="s">
+      <c r="B12" s="298" t="s">
         <v>1800</v>
       </c>
-      <c r="C12" s="308" t="s">
+      <c r="C12" s="298" t="s">
         <v>1801</v>
       </c>
-      <c r="D12" s="152">
+      <c r="D12" s="143">
         <v>29.3</v>
       </c>
-      <c r="F12" s="308" t="s">
+      <c r="F12" s="298" t="s">
         <v>634</v>
       </c>
-      <c r="G12" s="308" t="s">
+      <c r="G12" s="298" t="s">
         <v>1785</v>
       </c>
-      <c r="H12" s="308" t="s">
+      <c r="H12" s="298" t="s">
         <v>1885</v>
       </c>
-      <c r="I12" s="308" t="s">
+      <c r="I12" s="298" t="s">
         <v>1877</v>
       </c>
-      <c r="J12" s="152" t="s">
+      <c r="J12" s="143" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="153" customFormat="1" ht="28.8">
-      <c r="A13" s="271" t="s">
+    <row r="13" spans="1:10" s="144" customFormat="1" ht="28.8">
+      <c r="A13" s="261" t="s">
         <v>1844</v>
       </c>
-      <c r="B13" s="152" t="s">
+      <c r="B13" s="143" t="s">
         <v>1803</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152">
+      <c r="C13" s="143"/>
+      <c r="D13" s="143">
         <v>30</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-    </row>
-    <row r="14" spans="1:10" s="279" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A14" s="276"/>
-      <c r="B14" s="69">
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+    </row>
+    <row r="14" spans="1:10" s="269" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A14" s="266"/>
+      <c r="B14" s="61">
         <v>8500</v>
       </c>
-      <c r="C14" s="276">
+      <c r="C14" s="266">
         <v>8500</v>
       </c>
-      <c r="D14" s="277">
+      <c r="D14" s="267">
         <f>C14/D12</f>
         <v>290.10238907849828</v>
       </c>
-      <c r="E14" s="277">
+      <c r="E14" s="267">
         <f>D13*D14</f>
         <v>8703.0716723549485</v>
       </c>
-      <c r="F14" s="278">
+      <c r="F14" s="268">
         <f>E14*1%</f>
         <v>87.030716723549489</v>
       </c>
-      <c r="G14" s="278">
+      <c r="G14" s="268">
         <f>E14*1%</f>
         <v>87.030716723549489</v>
       </c>
-      <c r="H14" s="276">
+      <c r="H14" s="266">
         <v>1500</v>
       </c>
-      <c r="I14" s="278">
+      <c r="I14" s="268">
         <f>SUM(F14:H14)</f>
         <v>1674.061433447099</v>
       </c>
-      <c r="J14" s="278">
+      <c r="J14" s="268">
         <f>E14-I14</f>
         <v>7029.0102389078493</v>
       </c>
@@ -26239,184 +26898,184 @@
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="312" t="s">
+      <c r="D15" s="302" t="s">
         <v>1887</v>
       </c>
-      <c r="E15" s="313">
+      <c r="E15" s="303">
         <v>510100</v>
       </c>
-      <c r="F15" s="313">
+      <c r="F15" s="303">
         <v>211510</v>
       </c>
-      <c r="G15" s="313">
+      <c r="G15" s="303">
         <v>211510</v>
       </c>
-      <c r="H15" s="313">
+      <c r="H15" s="303">
         <v>211510</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
-      <c r="D16" s="312" t="s">
+      <c r="D16" s="302" t="s">
         <v>1862</v>
       </c>
-      <c r="E16" s="313">
+      <c r="E16" s="303">
         <v>211510</v>
       </c>
-      <c r="F16" s="313">
+      <c r="F16" s="303">
         <v>211542</v>
       </c>
-      <c r="G16" s="313">
+      <c r="G16" s="303">
         <v>211543</v>
       </c>
-      <c r="H16" s="313">
+      <c r="H16" s="303">
         <v>211190</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="173" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D17" s="314"/>
-      <c r="E17" s="315"/>
-      <c r="F17" s="315"/>
-      <c r="G17" s="315"/>
-      <c r="H17" s="315"/>
-    </row>
-    <row r="18" spans="1:11" s="173" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D18" s="314"/>
-      <c r="E18" s="315"/>
-      <c r="F18" s="315"/>
-      <c r="G18" s="315"/>
-      <c r="H18" s="315"/>
-    </row>
-    <row r="19" spans="1:11" s="301" customFormat="1">
-      <c r="A19" s="300" t="s">
+    <row r="17" spans="1:11" s="164" customFormat="1" ht="28.5" customHeight="1">
+      <c r="D17" s="304"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="305"/>
+    </row>
+    <row r="18" spans="1:11" s="164" customFormat="1" ht="28.5" customHeight="1">
+      <c r="D18" s="304"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="305"/>
+    </row>
+    <row r="19" spans="1:11" s="291" customFormat="1">
+      <c r="A19" s="290" t="s">
         <v>1795</v>
       </c>
-      <c r="B19" s="301" t="s">
+      <c r="B19" s="291" t="s">
         <v>1879</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1"/>
-    <row r="22" spans="1:11" s="301" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="B22" s="429" t="s">
+    <row r="22" spans="1:11" s="291" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="B22" s="474" t="s">
         <v>1796</v>
       </c>
-      <c r="C22" s="430"/>
+      <c r="C22" s="475"/>
     </row>
     <row r="23" spans="1:11" ht="30.6" customHeight="1">
-      <c r="B23" s="426" t="s">
+      <c r="B23" s="476" t="s">
         <v>1884</v>
       </c>
-      <c r="C23" s="426"/>
-      <c r="D23" s="427"/>
-      <c r="E23" s="427"/>
-      <c r="F23" s="427"/>
-      <c r="G23" s="427" t="s">
+      <c r="C23" s="476"/>
+      <c r="D23" s="477"/>
+      <c r="E23" s="477"/>
+      <c r="F23" s="477"/>
+      <c r="G23" s="477" t="s">
         <v>1863</v>
       </c>
-      <c r="H23" s="427"/>
-      <c r="I23" s="427"/>
-      <c r="J23" s="427"/>
-      <c r="K23" s="428" t="s">
+      <c r="H23" s="477"/>
+      <c r="I23" s="477"/>
+      <c r="J23" s="477"/>
+      <c r="K23" s="478" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="57.6" customHeight="1">
-      <c r="B24" s="302" t="s">
+      <c r="B24" s="292" t="s">
         <v>1797</v>
       </c>
-      <c r="C24" s="302" t="s">
+      <c r="C24" s="292" t="s">
         <v>1880</v>
       </c>
-      <c r="D24" s="302" t="s">
+      <c r="D24" s="292" t="s">
         <v>1881</v>
       </c>
-      <c r="E24" s="302" t="s">
+      <c r="E24" s="292" t="s">
         <v>1882</v>
       </c>
-      <c r="F24" s="302" t="s">
+      <c r="F24" s="292" t="s">
         <v>1883</v>
       </c>
-      <c r="G24" s="303" t="s">
+      <c r="G24" s="293" t="s">
         <v>634</v>
       </c>
-      <c r="H24" s="303" t="s">
+      <c r="H24" s="293" t="s">
         <v>1785</v>
       </c>
-      <c r="I24" s="303" t="s">
+      <c r="I24" s="293" t="s">
         <v>1885</v>
       </c>
-      <c r="J24" s="303" t="s">
+      <c r="J24" s="293" t="s">
         <v>1877</v>
       </c>
-      <c r="K24" s="428"/>
-    </row>
-    <row r="25" spans="1:11" s="272" customFormat="1" ht="36" customHeight="1">
-      <c r="B25" s="302">
+      <c r="K24" s="478"/>
+    </row>
+    <row r="25" spans="1:11" s="262" customFormat="1" ht="36" customHeight="1">
+      <c r="B25" s="292">
         <v>3000</v>
       </c>
-      <c r="C25" s="302">
+      <c r="C25" s="292">
         <v>1000</v>
       </c>
-      <c r="D25" s="302">
+      <c r="D25" s="292">
         <v>1000</v>
       </c>
-      <c r="E25" s="302">
+      <c r="E25" s="292">
         <v>100</v>
       </c>
-      <c r="F25" s="302">
+      <c r="F25" s="292">
         <f>SUM(B25:E25)</f>
         <v>5100</v>
       </c>
-      <c r="G25" s="302">
+      <c r="G25" s="292">
         <f>F25*1%</f>
         <v>51</v>
       </c>
-      <c r="H25" s="302">
+      <c r="H25" s="292">
         <f>F25*1%</f>
         <v>51</v>
       </c>
-      <c r="I25" s="302">
+      <c r="I25" s="292">
         <v>1249.5</v>
       </c>
-      <c r="J25" s="302">
+      <c r="J25" s="292">
         <f>SUM(G25:I25)</f>
         <v>1351.5</v>
       </c>
-      <c r="K25" s="273">
+      <c r="K25" s="263">
         <f>F25-J25</f>
         <v>3748.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="37.5" customHeight="1">
-      <c r="E26" s="316" t="s">
+      <c r="E26" s="306" t="s">
         <v>1887</v>
       </c>
-      <c r="F26" s="317">
+      <c r="F26" s="307">
         <v>510100</v>
       </c>
-      <c r="G26" s="317">
+      <c r="G26" s="307">
         <v>211510</v>
       </c>
-      <c r="H26" s="317">
+      <c r="H26" s="307">
         <v>211510</v>
       </c>
-      <c r="I26" s="317">
+      <c r="I26" s="307">
         <v>211510</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="37.5" customHeight="1">
-      <c r="E27" s="316" t="s">
+      <c r="E27" s="306" t="s">
         <v>1862</v>
       </c>
-      <c r="F27" s="317">
+      <c r="F27" s="307">
         <v>211510</v>
       </c>
-      <c r="G27" s="317">
+      <c r="G27" s="307">
         <v>211542</v>
       </c>
-      <c r="H27" s="317">
+      <c r="H27" s="307">
         <v>211543</v>
       </c>
-      <c r="I27" s="317">
+      <c r="I27" s="307">
         <v>211190</v>
       </c>
     </row>
@@ -26441,8 +27100,8 @@
   <dimension ref="A1:E972"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A372" sqref="A372:B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -26657,10 +27316,10 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>1788</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="47" t="s">
         <v>1772</v>
       </c>
     </row>
@@ -28089,7 +28748,7 @@
       <c r="C147" s="5">
         <v>4</v>
       </c>
-      <c r="E147" s="61"/>
+      <c r="E147" s="56"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="7" t="s">
@@ -28101,7 +28760,7 @@
       <c r="C148" s="5">
         <v>4</v>
       </c>
-      <c r="E148" s="61"/>
+      <c r="E148" s="56"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="7" t="s">
@@ -28113,7 +28772,7 @@
       <c r="C149" s="5">
         <v>4</v>
       </c>
-      <c r="E149" s="61"/>
+      <c r="E149" s="56"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="7" t="s">
@@ -28191,7 +28850,7 @@
       <c r="C156" s="5">
         <v>3</v>
       </c>
-      <c r="E156" s="61"/>
+      <c r="E156" s="56"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="7" t="s">
@@ -28203,7 +28862,7 @@
       <c r="C157" s="5">
         <v>3</v>
       </c>
-      <c r="E157" s="61"/>
+      <c r="E157" s="56"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="7" t="s">
@@ -28369,7 +29028,7 @@
       <c r="C172" s="5">
         <v>9</v>
       </c>
-      <c r="E172" s="61"/>
+      <c r="E172" s="56"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="7" t="s">
@@ -28381,7 +29040,7 @@
       <c r="C173" s="5">
         <v>9</v>
       </c>
-      <c r="E173" s="61"/>
+      <c r="E173" s="56"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="7" t="s">
@@ -28393,7 +29052,7 @@
       <c r="C174" s="5">
         <v>9</v>
       </c>
-      <c r="E174" s="61"/>
+      <c r="E174" s="56"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="7" t="s">
@@ -28405,7 +29064,7 @@
       <c r="C175" s="5">
         <v>9</v>
       </c>
-      <c r="E175" s="61"/>
+      <c r="E175" s="56"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="7" t="s">
@@ -28417,7 +29076,7 @@
       <c r="C176" s="5">
         <v>9</v>
       </c>
-      <c r="E176" s="61"/>
+      <c r="E176" s="56"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="7" t="s">
@@ -28440,7 +29099,7 @@
       <c r="C178" s="13">
         <v>10</v>
       </c>
-      <c r="E178" s="62"/>
+      <c r="E178" s="57"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="12" t="s">
@@ -28452,7 +29111,7 @@
       <c r="C179" s="13">
         <v>10</v>
       </c>
-      <c r="E179" s="62"/>
+      <c r="E179" s="57"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="12" t="s">
@@ -28464,7 +29123,7 @@
       <c r="C180" s="13">
         <v>9</v>
       </c>
-      <c r="E180" s="62"/>
+      <c r="E180" s="57"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="12" t="s">
@@ -28476,7 +29135,7 @@
       <c r="C181" s="13">
         <v>9</v>
       </c>
-      <c r="E181" s="62"/>
+      <c r="E181" s="57"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="12" t="s">
@@ -28488,7 +29147,7 @@
       <c r="C182" s="13">
         <v>9</v>
       </c>
-      <c r="E182" s="62"/>
+      <c r="E182" s="57"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="12" t="s">
@@ -28500,7 +29159,7 @@
       <c r="C183" s="13">
         <v>9</v>
       </c>
-      <c r="E183" s="62"/>
+      <c r="E183" s="57"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="12" t="s">
@@ -28512,7 +29171,7 @@
       <c r="C184" s="13">
         <v>9</v>
       </c>
-      <c r="E184" s="62"/>
+      <c r="E184" s="57"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="12" t="s">
@@ -29932,7 +30591,7 @@
       <c r="C313" s="22">
         <v>13</v>
       </c>
-      <c r="D313" s="72" t="s">
+      <c r="D313" s="64" t="s">
         <v>1812</v>
       </c>
       <c r="E313" s="3">
@@ -29949,7 +30608,7 @@
       <c r="C314" s="22">
         <v>13</v>
       </c>
-      <c r="D314" s="72" t="s">
+      <c r="D314" s="64" t="s">
         <v>1811</v>
       </c>
     </row>
@@ -29985,7 +30644,7 @@
       <c r="C317" s="22">
         <v>13</v>
       </c>
-      <c r="D317" s="72" t="s">
+      <c r="D317" s="64" t="s">
         <v>1813</v>
       </c>
     </row>
@@ -30021,7 +30680,7 @@
       <c r="C320" s="22">
         <v>13</v>
       </c>
-      <c r="D320" s="72" t="s">
+      <c r="D320" s="64" t="s">
         <v>1814</v>
       </c>
     </row>
@@ -30145,10 +30804,10 @@
       <c r="C331" s="25">
         <v>17</v>
       </c>
-      <c r="D331" s="48" t="s">
+      <c r="D331" s="47" t="s">
         <v>1789</v>
       </c>
-      <c r="E331" s="48" t="s">
+      <c r="E331" s="47" t="s">
         <v>1790</v>
       </c>
     </row>
@@ -30184,7 +30843,7 @@
       <c r="C334" s="22">
         <v>13</v>
       </c>
-      <c r="D334" s="61"/>
+      <c r="D334" s="56"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="7" t="s">
@@ -30196,7 +30855,7 @@
       <c r="C335" s="22">
         <v>13</v>
       </c>
-      <c r="D335" s="61"/>
+      <c r="D335" s="56"/>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="7" t="s">
@@ -30208,7 +30867,7 @@
       <c r="C336" s="22">
         <v>13</v>
       </c>
-      <c r="D336" s="61"/>
+      <c r="D336" s="56"/>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="7" t="s">
@@ -30605,7 +31264,7 @@
       <c r="C372" s="22">
         <v>13</v>
       </c>
-      <c r="D372" s="49" t="s">
+      <c r="D372" s="48" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -30619,7 +31278,7 @@
       <c r="C373" s="22">
         <v>13</v>
       </c>
-      <c r="D373" s="49" t="s">
+      <c r="D373" s="48" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -37206,17 +37865,17 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="73" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="73" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="65" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="65" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="68.33203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="73" customWidth="1"/>
+    <col min="5" max="5" width="68.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="65" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -37224,2094 +37883,2094 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="33" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="83" t="s">
         <v>1822</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="151" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="83" t="s">
         <v>1819</v>
       </c>
-      <c r="F2" s="435" t="s">
+      <c r="F2" s="483" t="s">
         <v>1826</v>
       </c>
-      <c r="G2" s="435"/>
-      <c r="H2" s="434" t="s">
+      <c r="G2" s="483"/>
+      <c r="H2" s="482" t="s">
         <v>1827</v>
       </c>
-      <c r="I2" s="434"/>
-      <c r="J2" s="435" t="s">
+      <c r="I2" s="482"/>
+      <c r="J2" s="483" t="s">
         <v>1828</v>
       </c>
-      <c r="K2" s="435"/>
+      <c r="K2" s="483"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="66" t="s">
         <v>1770</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="71" t="s">
         <v>1771</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="66" t="s">
         <v>1770</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="71" t="s">
         <v>1771</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="66" t="s">
         <v>1770</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="71" t="s">
         <v>1771</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="440" t="s">
+      <c r="B4" s="488" t="s">
         <v>1820</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="75" t="str">
+      <c r="C4" s="74"/>
+      <c r="D4" s="67" t="str">
         <f>'План счетов'!A2</f>
         <v>«1 11 110»</v>
       </c>
-      <c r="E4" s="76" t="str">
+      <c r="E4" s="68" t="str">
         <f>'План счетов'!B2</f>
         <v>Воситаҳои пулӣ бо асъори миллӣ</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="72">
         <f>602566-499310</f>
         <v>103256</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73">
         <v>143000</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="73">
         <v>25200</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="73">
         <f>F4+H4-I4</f>
         <v>221056</v>
       </c>
-      <c r="K4" s="81"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="28.8">
-      <c r="B5" s="440"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="75" t="str">
+      <c r="B5" s="488"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="67" t="str">
         <f>'План счетов'!A18</f>
         <v>«1 11 254»</v>
       </c>
-      <c r="E5" s="76" t="str">
+      <c r="E5" s="68" t="str">
         <f>'План счетов'!B18</f>
         <v>ҲЯХ-и ҳисобҳои шахсии маблағҳои буҷетии БМ ташкилотҳои буҷетӣ  бо асъори миллӣ</v>
       </c>
-      <c r="F5" s="80">
+      <c r="F5" s="72">
         <v>122366</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81">
+      <c r="G5" s="73"/>
+      <c r="H5" s="73">
         <v>201062</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81">
+      <c r="I5" s="73"/>
+      <c r="J5" s="73">
         <f t="shared" ref="J5:J32" si="0">F5+H5-I5</f>
         <v>323428</v>
       </c>
-      <c r="K5" s="81"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1">
-      <c r="B6" s="440"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="77" t="str">
+      <c r="B6" s="488"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="69" t="str">
         <f>'План счетов'!A138</f>
         <v>«1 23 100»</v>
       </c>
-      <c r="E6" s="77" t="str">
+      <c r="E6" s="69" t="str">
         <f>'План счетов'!B138</f>
         <v>Ҳисобҳо барои қабул</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81">
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="81"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
-      <c r="B7" s="440"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="75" t="str">
+      <c r="B7" s="488"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="67" t="str">
         <f>'План счетов'!A94</f>
         <v>«1 14 610»</v>
       </c>
-      <c r="E7" s="76" t="str">
+      <c r="E7" s="68" t="str">
         <f>'План счетов'!B94</f>
         <v>Қарздориҳои дебитории шахсҳои ҳисобдеҳ</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81">
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="81"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="23.25" customHeight="1">
-      <c r="B8" s="440"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="488"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="34" t="str">
         <f>'План счетов'!A100</f>
         <v>«1 15 100»</v>
       </c>
-      <c r="E8" s="68" t="str">
+      <c r="E8" s="60" t="str">
         <f>'План счетов'!B100</f>
         <v>Пешпардохтҳои додашуда барои молхо</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81">
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="81"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="440"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="488"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="34" t="str">
         <f>'План счетов'!A101</f>
         <v>«1 15 200»</v>
       </c>
-      <c r="E9" s="68" t="str">
+      <c r="E9" s="60" t="str">
         <f>'План счетов'!B101</f>
         <v>Пешпардохтҳои додашуда барои иљрои кор ва хизматрасониҳо</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81">
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="81"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1">
-      <c r="B10" s="440"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="488"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="34" t="str">
         <f>'План счетов'!A102</f>
         <v>«1 15 300»</v>
       </c>
-      <c r="E10" s="68" t="str">
+      <c r="E10" s="60" t="str">
         <f>'План счетов'!B102</f>
         <v>Пешпардохтҳои додашуда барои иҷора</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81">
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="81"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="440"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="75" t="str">
+      <c r="B11" s="488"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="67" t="str">
         <f>'План счетов'!A106</f>
         <v>«1 15 900»</v>
       </c>
-      <c r="E11" s="76" t="str">
+      <c r="E11" s="68" t="str">
         <f>'План счетов'!B106</f>
         <v>Дигар пешпардохтҳои додашуда</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81">
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="81"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1">
-      <c r="B12" s="440"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="75" t="str">
+      <c r="B12" s="488"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="67" t="str">
         <f>'План счетов'!A155</f>
         <v>«1 31 120»</v>
       </c>
-      <c r="E12" s="76" t="str">
+      <c r="E12" s="68" t="str">
         <f>'План счетов'!B155</f>
         <v xml:space="preserve">Захираҳои озуқаворӣ </v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81">
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="81"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
-      <c r="B13" s="440"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="75" t="str">
+      <c r="B13" s="488"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="67" t="str">
         <f>'План счетов'!A156</f>
         <v>«1 31 210»</v>
       </c>
-      <c r="E13" s="76" t="str">
+      <c r="E13" s="68" t="str">
         <f>'План счетов'!B156</f>
         <v>Молҳои канселярӣ ва асбобҳои таълимӣ</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81">
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="81"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1">
-      <c r="B14" s="440"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="75" t="str">
+      <c r="B14" s="488"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="67" t="str">
         <f>'План счетов'!A157</f>
         <v>«1 31 211»</v>
       </c>
-      <c r="E14" s="76" t="str">
+      <c r="E14" s="68" t="str">
         <f>'План счетов'!B157</f>
         <v>Молҳои хоҷагӣ ва инвентар</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81">
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="81"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1">
-      <c r="B15" s="440"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="75" t="str">
+      <c r="B15" s="488"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="67" t="str">
         <f>'План счетов'!A158</f>
         <v>«1 31 212»</v>
       </c>
-      <c r="E15" s="76" t="str">
+      <c r="E15" s="68" t="str">
         <f>'План счетов'!B158</f>
         <v>Маводҳои хароҷотӣ</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81">
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="81"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="440"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="75" t="str">
+      <c r="B16" s="488"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="67" t="str">
         <f>'План счетов'!A159</f>
         <v>«1 31 213»</v>
       </c>
-      <c r="E16" s="76" t="str">
+      <c r="E16" s="68" t="str">
         <f>'План счетов'!B159</f>
         <v>Инвентари мулоим ва либоси расмӣ</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81">
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="81"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1">
-      <c r="B17" s="440"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="75" t="str">
+      <c r="B17" s="488"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="67" t="str">
         <f>'План счетов'!A160</f>
         <v>«1 31 214»</v>
       </c>
-      <c r="E17" s="76" t="str">
+      <c r="E17" s="68" t="str">
         <f>'План счетов'!B160</f>
         <v>Маҳсулоти хўрока</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81">
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="81"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="440"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="75" t="str">
+      <c r="B18" s="488"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="67" t="str">
         <f>'План счетов'!A162</f>
         <v>«1 31 216»</v>
       </c>
-      <c r="E18" s="76" t="str">
+      <c r="E18" s="68" t="str">
         <f>'План счетов'!B162</f>
         <v>Сўзишворӣ-равғанҳои молиданӣ</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81">
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="81"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="B19" s="440"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="75" t="str">
+      <c r="B19" s="488"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="67" t="str">
         <f>'План счетов'!A163</f>
         <v>«1 31 217»</v>
       </c>
-      <c r="E19" s="76" t="str">
+      <c r="E19" s="68" t="str">
         <f>'План счетов'!B163</f>
         <v>Сўзишворӣ дар ҳисоботдиҳии ронандагон</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81">
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="81"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="B20" s="440"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="75" t="str">
+      <c r="B20" s="488"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="67" t="str">
         <f>'План счетов'!A164</f>
         <v>«1 31 218»</v>
       </c>
-      <c r="E20" s="76" t="str">
+      <c r="E20" s="68" t="str">
         <f>'План счетов'!B164</f>
         <v xml:space="preserve">Истифодабарии захираҳои молӣ-маводӣ (ЗММ) </v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81">
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="81"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
-      <c r="B21" s="440"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="75" t="str">
+      <c r="B21" s="488"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="67" t="str">
         <f>'План счетов'!A165</f>
         <v>«1 31 219»</v>
       </c>
-      <c r="E21" s="76" t="str">
+      <c r="E21" s="68" t="str">
         <f>'План счетов'!B165</f>
         <v xml:space="preserve">Молҳои дигаре, ки ба дараҷаҳои дигар мансубнадошта </v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81">
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="81"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1">
-      <c r="B22" s="440"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="75" t="str">
+      <c r="B22" s="488"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="67" t="str">
         <f>'План счетов'!A166</f>
         <v>«1 31 220»</v>
       </c>
-      <c r="E22" s="76" t="str">
+      <c r="E22" s="68" t="str">
         <f>'План счетов'!B166</f>
         <v xml:space="preserve">Истеҳсолоти нотамом </v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81">
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="81"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="440"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="116" t="str">
+      <c r="B23" s="488"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="107" t="str">
         <f>'План счетов'!A167</f>
         <v>«1 31 230»</v>
       </c>
-      <c r="E23" s="150" t="str">
+      <c r="E23" s="141" t="str">
         <f>'План счетов'!B167</f>
         <v xml:space="preserve">Маҳсулоти тайёр </v>
       </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118">
+      <c r="F23" s="108"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="118"/>
+      <c r="K23" s="109"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1">
-      <c r="B24" s="441"/>
-      <c r="C24" s="436" t="s">
+      <c r="B24" s="489"/>
+      <c r="C24" s="484" t="s">
         <v>1815</v>
       </c>
-      <c r="D24" s="128" t="str">
+      <c r="D24" s="119" t="str">
         <f>'План счетов'!A170</f>
         <v>«1 41 110»</v>
       </c>
-      <c r="E24" s="138" t="str">
+      <c r="E24" s="129" t="str">
         <f>'План счетов'!B170</f>
         <v>Биноҳои истиқоматӣ (истиқоматгоҳ)</v>
       </c>
-      <c r="F24" s="129"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130">
+      <c r="F24" s="120"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121">
         <f>F24+H24-I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="131"/>
+      <c r="K24" s="122"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="441"/>
-      <c r="C25" s="437"/>
-      <c r="D25" s="75" t="str">
+      <c r="B25" s="489"/>
+      <c r="C25" s="485"/>
+      <c r="D25" s="67" t="str">
         <f>'План счетов'!A171</f>
         <v>«1 41 120»</v>
       </c>
-      <c r="E25" s="76" t="str">
+      <c r="E25" s="68" t="str">
         <f>'План счетов'!B171</f>
         <v xml:space="preserve">Биноҳои ғайриистиқоматӣ </v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="72">
         <v>200000</v>
       </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81">
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K25" s="132"/>
+      <c r="K25" s="123"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="441"/>
-      <c r="C26" s="437"/>
-      <c r="D26" s="75" t="str">
+      <c r="B26" s="489"/>
+      <c r="C26" s="485"/>
+      <c r="D26" s="67" t="str">
         <f>'План счетов'!A172</f>
         <v>«1 41 210»</v>
       </c>
-      <c r="E26" s="76" t="str">
+      <c r="E26" s="68" t="str">
         <f>'План счетов'!B172</f>
         <v xml:space="preserve">Иншоот </v>
       </c>
-      <c r="F26" s="80">
+      <c r="F26" s="72">
         <v>200000</v>
       </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81">
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K26" s="132"/>
+      <c r="K26" s="123"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="441"/>
-      <c r="C27" s="437"/>
-      <c r="D27" s="75" t="str">
+      <c r="B27" s="489"/>
+      <c r="C27" s="485"/>
+      <c r="D27" s="67" t="str">
         <f>'План счетов'!A173</f>
         <v>«1 41 220»</v>
       </c>
-      <c r="E27" s="76" t="str">
+      <c r="E27" s="68" t="str">
         <f>'План счетов'!B173</f>
         <v>Дастгоҳҳои таҳвилдиҳӣ</v>
       </c>
-      <c r="F27" s="80">
+      <c r="F27" s="72">
         <v>25000</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81">
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="K27" s="132"/>
+      <c r="K27" s="123"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="441"/>
-      <c r="C28" s="437"/>
-      <c r="D28" s="75" t="str">
+      <c r="B28" s="489"/>
+      <c r="C28" s="485"/>
+      <c r="D28" s="67" t="str">
         <f>'План счетов'!A174</f>
         <v>«1 41 310»</v>
       </c>
-      <c r="E28" s="76" t="str">
+      <c r="E28" s="68" t="str">
         <f>'План счетов'!B174</f>
         <v xml:space="preserve">Таҷҳизоти нақлиётӣ </v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="72">
         <v>15500</v>
       </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81">
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73">
         <f t="shared" si="0"/>
         <v>15500</v>
       </c>
-      <c r="K28" s="132"/>
+      <c r="K28" s="123"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="441"/>
-      <c r="C29" s="437"/>
-      <c r="D29" s="75" t="str">
+      <c r="B29" s="489"/>
+      <c r="C29" s="485"/>
+      <c r="D29" s="67" t="str">
         <f>'План счетов'!A175</f>
         <v>«1 41 320»</v>
       </c>
-      <c r="E29" s="76" t="str">
+      <c r="E29" s="68" t="str">
         <f>'План счетов'!B175</f>
         <v>Дигар мошинҳо ва таҷҳизот</v>
       </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81">
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="132"/>
+      <c r="K29" s="123"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="441"/>
-      <c r="C30" s="437"/>
-      <c r="D30" s="75" t="str">
+      <c r="B30" s="489"/>
+      <c r="C30" s="485"/>
+      <c r="D30" s="67" t="str">
         <f>'План счетов'!A176</f>
         <v>«1 41 400»</v>
       </c>
-      <c r="E30" s="76" t="str">
+      <c r="E30" s="68" t="str">
         <f>'План счетов'!B176</f>
         <v>Мебел, лавозимоти идора,асбобҳо, инвентари истеҳсолӣ ва хоҷагидорӣ</v>
       </c>
-      <c r="F30" s="80">
+      <c r="F30" s="72">
         <v>55000</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81">
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73">
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
-      <c r="K30" s="132"/>
+      <c r="K30" s="123"/>
     </row>
     <row r="31" spans="2:11" ht="15" thickBot="1">
-      <c r="B31" s="441"/>
-      <c r="C31" s="438"/>
-      <c r="D31" s="134" t="str">
+      <c r="B31" s="489"/>
+      <c r="C31" s="486"/>
+      <c r="D31" s="125" t="str">
         <f>'План счетов'!A177</f>
         <v>«1 41 500»</v>
       </c>
-      <c r="E31" s="140" t="str">
+      <c r="E31" s="131" t="str">
         <f>'План счетов'!B177</f>
         <v xml:space="preserve">Ободонии замин </v>
       </c>
-      <c r="F31" s="135"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136">
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="137"/>
+      <c r="K31" s="128"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="440" t="s">
+      <c r="B32" s="488" t="s">
         <v>1821</v>
       </c>
-      <c r="C32" s="439" t="s">
+      <c r="C32" s="487" t="s">
         <v>1829</v>
       </c>
-      <c r="D32" s="89" t="str">
+      <c r="D32" s="80" t="str">
         <f>'План счетов'!A178</f>
         <v>«1 42 110»</v>
       </c>
-      <c r="E32" s="125" t="str">
+      <c r="E32" s="116" t="str">
         <f>'План счетов'!B178</f>
         <v xml:space="preserve">Фарсудашавии ҷамъшуда - биноҳои истиқоматӣ </v>
       </c>
-      <c r="F32" s="114"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115">
+      <c r="F32" s="105"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="115"/>
+      <c r="K32" s="106"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="440"/>
-      <c r="C33" s="439"/>
-      <c r="D33" s="75" t="str">
+      <c r="B33" s="488"/>
+      <c r="C33" s="487"/>
+      <c r="D33" s="67" t="str">
         <f>'План счетов'!A179</f>
         <v>«1 42 120»</v>
       </c>
-      <c r="E33" s="76" t="str">
+      <c r="E33" s="68" t="str">
         <f>'План счетов'!B179</f>
         <v xml:space="preserve">Фарсудашавии ҷамъшуда - биноҳои ғайриистиқоматӣ </v>
       </c>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81">
+      <c r="F33" s="72"/>
+      <c r="G33" s="73">
         <v>25522</v>
       </c>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81">
+      <c r="H33" s="73"/>
+      <c r="I33" s="73">
         <v>2500</v>
       </c>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81">
+      <c r="J33" s="73"/>
+      <c r="K33" s="73">
         <f t="shared" ref="K33:K37" si="1">G33+I33-H33</f>
         <v>28022</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="440"/>
-      <c r="C34" s="439"/>
-      <c r="D34" s="75" t="str">
+      <c r="B34" s="488"/>
+      <c r="C34" s="487"/>
+      <c r="D34" s="67" t="str">
         <f>'План счетов'!A180</f>
         <v>«1 42 210»</v>
       </c>
-      <c r="E34" s="76" t="str">
+      <c r="E34" s="68" t="str">
         <f>'План счетов'!B180</f>
         <v xml:space="preserve">Фарсудашавии ҷамъшуда - иншоот </v>
       </c>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81">
+      <c r="F34" s="72"/>
+      <c r="G34" s="73">
         <v>25522</v>
       </c>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81">
+      <c r="H34" s="73"/>
+      <c r="I34" s="73">
         <v>2500</v>
       </c>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81">
+      <c r="J34" s="73"/>
+      <c r="K34" s="73">
         <f t="shared" si="1"/>
         <v>28022</v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="440"/>
-      <c r="C35" s="439"/>
-      <c r="D35" s="75" t="str">
+      <c r="B35" s="488"/>
+      <c r="C35" s="487"/>
+      <c r="D35" s="67" t="str">
         <f>'План счетов'!A181</f>
         <v>«1 42 220»</v>
       </c>
-      <c r="E35" s="76" t="str">
+      <c r="E35" s="68" t="str">
         <f>'План счетов'!B181</f>
         <v xml:space="preserve">Фарсудашавии ҷамъшуда - иншоот </v>
       </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81">
+      <c r="F35" s="72"/>
+      <c r="G35" s="73">
         <v>2500</v>
       </c>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81">
+      <c r="H35" s="73"/>
+      <c r="I35" s="73">
         <v>400</v>
       </c>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81">
+      <c r="J35" s="73"/>
+      <c r="K35" s="73">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="440"/>
-      <c r="C36" s="439"/>
-      <c r="D36" s="75" t="str">
+      <c r="B36" s="488"/>
+      <c r="C36" s="487"/>
+      <c r="D36" s="67" t="str">
         <f>'План счетов'!A182</f>
         <v>«1 42 310»</v>
       </c>
-      <c r="E36" s="76" t="str">
+      <c r="E36" s="68" t="str">
         <f>'План счетов'!B182</f>
         <v>Фарсудашавии ҷамъшуда - таҷҳизоти нақлиётӣ</v>
       </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81">
+      <c r="F36" s="72"/>
+      <c r="G36" s="73">
         <v>1500</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81">
+      <c r="H36" s="73"/>
+      <c r="I36" s="73">
         <v>300</v>
       </c>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81">
+      <c r="J36" s="73"/>
+      <c r="K36" s="73">
         <f>G36+I36-H36</f>
         <v>1800</v>
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="440"/>
-      <c r="C37" s="439"/>
-      <c r="D37" s="75" t="str">
+      <c r="B37" s="488"/>
+      <c r="C37" s="487"/>
+      <c r="D37" s="67" t="str">
         <f>'План счетов'!A183</f>
         <v>«1 42 320»</v>
       </c>
-      <c r="E37" s="76" t="str">
+      <c r="E37" s="68" t="str">
         <f>'План счетов'!B183</f>
         <v xml:space="preserve">Фарсудашавии ҷамъшуда - дигар мошинҳо ва таҷҳизот </v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81">
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="28.8">
-      <c r="B38" s="440"/>
-      <c r="C38" s="439"/>
-      <c r="D38" s="75" t="str">
+      <c r="B38" s="488"/>
+      <c r="C38" s="487"/>
+      <c r="D38" s="67" t="str">
         <f>'План счетов'!A184</f>
         <v>«1 42 400»</v>
       </c>
-      <c r="E38" s="76" t="str">
+      <c r="E38" s="68" t="str">
         <f>'План счетов'!B184</f>
         <v>Фарсудашавии ҷамъшуда – Мебел, лавозимоти идора, асбобҳо, инвентари истеҳсолӣ ва хоҷагидорӣ</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81">
+      <c r="F38" s="72"/>
+      <c r="G38" s="73">
         <v>25000</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81">
+      <c r="H38" s="73"/>
+      <c r="I38" s="73">
         <v>1000</v>
       </c>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81">
+      <c r="J38" s="73"/>
+      <c r="K38" s="73">
         <f>G38+I38-H38</f>
         <v>26000</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="15" thickBot="1">
-      <c r="B39" s="442"/>
-      <c r="C39" s="439"/>
-      <c r="D39" s="116" t="str">
+      <c r="B39" s="490"/>
+      <c r="C39" s="487"/>
+      <c r="D39" s="107" t="str">
         <f>'План счетов'!A185</f>
         <v>«1 42 500»</v>
       </c>
-      <c r="E39" s="150" t="str">
+      <c r="E39" s="141" t="str">
         <f>'План счетов'!B185</f>
         <v xml:space="preserve">Фарсудашавии ҷамъшуда - ободонии замин </v>
       </c>
-      <c r="F39" s="117"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118">
+      <c r="F39" s="108"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109">
         <f t="shared" ref="K39:K43" si="2">G39+I39-H39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="15" customHeight="1">
-      <c r="B40" s="443" t="s">
+      <c r="B40" s="491" t="s">
         <v>1820</v>
       </c>
-      <c r="C40" s="431" t="s">
+      <c r="C40" s="479" t="s">
         <v>1816</v>
       </c>
-      <c r="D40" s="128" t="str">
+      <c r="D40" s="119" t="str">
         <f>'План счетов'!A211</f>
         <v>«1 49 100»</v>
       </c>
-      <c r="E40" s="138" t="str">
+      <c r="E40" s="129" t="str">
         <f>'План счетов'!B211</f>
         <v>Таъминоти барномавӣ</v>
       </c>
-      <c r="F40" s="129"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130">
+      <c r="F40" s="120"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121">
         <v>15000</v>
       </c>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130">
+      <c r="I40" s="121"/>
+      <c r="J40" s="121">
         <f t="shared" ref="J40" si="3">F40+H40-I40</f>
         <v>15000</v>
       </c>
-      <c r="K40" s="131"/>
+      <c r="K40" s="122"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="444"/>
-      <c r="C41" s="432"/>
-      <c r="D41" s="75" t="str">
+      <c r="B41" s="492"/>
+      <c r="C41" s="480"/>
+      <c r="D41" s="67" t="str">
         <f>'План счетов'!A212</f>
         <v>«1 49 200»</v>
       </c>
-      <c r="E41" s="76" t="str">
+      <c r="E41" s="68" t="str">
         <f>'План счетов'!B212</f>
         <v>Веб-сайтҳо</v>
       </c>
-      <c r="F41" s="80"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="132">
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="15" thickBot="1">
-      <c r="B42" s="445"/>
-      <c r="C42" s="433"/>
-      <c r="D42" s="134" t="str">
+      <c r="B42" s="493"/>
+      <c r="C42" s="481"/>
+      <c r="D42" s="125" t="str">
         <f>'План счетов'!A216</f>
         <v>«1 49 900»</v>
       </c>
-      <c r="E42" s="140" t="str">
+      <c r="E42" s="131" t="str">
         <f>'План счетов'!B216</f>
         <v>Дигар дороиҳои ғайримоддӣ</v>
       </c>
-      <c r="F42" s="135"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="137">
+      <c r="F42" s="126"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="128">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="28.8">
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="82" t="s">
         <v>1821</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="82" t="s">
         <v>1829</v>
       </c>
-      <c r="D43" s="89" t="str">
+      <c r="D43" s="80" t="str">
         <f>'План счетов'!A217</f>
         <v>«1 50 000»</v>
       </c>
-      <c r="E43" s="125" t="str">
+      <c r="E43" s="116" t="str">
         <f>'План счетов'!B217</f>
         <v xml:space="preserve">Истеҳлоки ҷамъшудаи дороиҳои ғайримоддӣ </v>
       </c>
-      <c r="F43" s="114"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115">
+      <c r="F43" s="105"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106">
         <v>1500</v>
       </c>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115">
+      <c r="J43" s="106"/>
+      <c r="K43" s="106">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81">
+      <c r="E44" s="60"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73">
         <f t="shared" ref="J44" si="4">F44+H44-I44</f>
         <v>0</v>
       </c>
-      <c r="K44" s="81"/>
+      <c r="K44" s="73"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
     </row>
     <row r="46" spans="2:11" s="35" customFormat="1" ht="15" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="113"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="431" t="s">
+      <c r="B47" s="479" t="s">
         <v>1823</v>
       </c>
-      <c r="C47" s="127"/>
-      <c r="D47" s="128" t="str">
+      <c r="C47" s="118"/>
+      <c r="D47" s="119" t="str">
         <f>'План счетов'!A313</f>
         <v>«2 11 110»</v>
       </c>
-      <c r="E47" s="128" t="str">
+      <c r="E47" s="119" t="str">
         <f>'План счетов'!B313</f>
         <v>Ҳисобҳо барои пардохт</v>
       </c>
-      <c r="F47" s="129"/>
-      <c r="G47" s="130">
+      <c r="F47" s="120"/>
+      <c r="G47" s="121">
         <v>266634</v>
       </c>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="131">
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="122">
         <f t="shared" ref="K47:K72" si="5">G47+I47-H47</f>
         <v>266634</v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="432"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="75" t="str">
+      <c r="B48" s="480"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="67" t="str">
         <f>'План счетов'!A314</f>
         <v>«2 11 120»</v>
       </c>
-      <c r="E48" s="75" t="str">
+      <c r="E48" s="67" t="str">
         <f>'План счетов'!B314</f>
         <v xml:space="preserve">Пешпардохтҳои гирифташуда </v>
       </c>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81">
+      <c r="F48" s="72"/>
+      <c r="G48" s="73">
         <v>10000</v>
       </c>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="132">
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="123">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="432"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="75" t="str">
+      <c r="B49" s="480"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="67" t="str">
         <f>'План счетов'!A320</f>
         <v>«2 11 190»</v>
       </c>
-      <c r="E49" s="75" t="str">
+      <c r="E49" s="67" t="str">
         <f>'План счетов'!B320</f>
         <v>Дигар ҳисобҳо барои пардохт</v>
       </c>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81">
+      <c r="F49" s="72"/>
+      <c r="G49" s="73">
         <v>364444</v>
       </c>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="132">
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="123">
         <f t="shared" si="5"/>
         <v>364444</v>
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="432"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="75" t="str">
+      <c r="B50" s="480"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="67" t="str">
         <f>'План счетов'!A331</f>
         <v>«2 11 510»</v>
       </c>
-      <c r="E50" s="76" t="str">
+      <c r="E50" s="68" t="str">
         <f>'План счетов'!B331</f>
         <v>Музди меҳнат барои пардохт</v>
       </c>
-      <c r="F50" s="80"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81">
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73">
         <v>250000</v>
       </c>
-      <c r="J50" s="81"/>
-      <c r="K50" s="132">
+      <c r="J50" s="73"/>
+      <c r="K50" s="123">
         <f t="shared" si="5"/>
         <v>250000</v>
       </c>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="432"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="132">
+      <c r="B51" s="480"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="28.8">
-      <c r="B52" s="432"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="75" t="str">
+      <c r="B52" s="480"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="67" t="str">
         <f>'План счетов'!A335</f>
         <v>«2 11 541»</v>
       </c>
-      <c r="E52" s="76" t="str">
+      <c r="E52" s="68" t="str">
         <f>'План счетов'!B335</f>
         <v xml:space="preserve">Аъзоҳаққии иттифоқи касаба барои пардохт - ба иттифоқи касабаи ҷумҳуриявӣ </v>
       </c>
-      <c r="F52" s="80"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81">
+      <c r="F52" s="72"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73">
         <f>22000+36000</f>
         <v>58000</v>
       </c>
-      <c r="J52" s="81"/>
-      <c r="K52" s="132">
+      <c r="J52" s="73"/>
+      <c r="K52" s="123">
         <f t="shared" si="5"/>
         <v>58000</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="28.8">
-      <c r="B53" s="432"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="75" t="str">
+      <c r="B53" s="480"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="67" t="str">
         <f>'План счетов'!A336</f>
         <v>«2 11 542»</v>
       </c>
-      <c r="E53" s="76" t="str">
+      <c r="E53" s="68" t="str">
         <f>'План счетов'!B336</f>
         <v xml:space="preserve">Аъзоҳаққии иттифоқи касаба барои пардохт - ба иттифоқи касабаи муассиса </v>
       </c>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81">
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73">
         <v>17662</v>
       </c>
-      <c r="J53" s="81"/>
-      <c r="K53" s="132">
+      <c r="J53" s="73"/>
+      <c r="K53" s="123">
         <f t="shared" si="5"/>
         <v>17662</v>
       </c>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="432"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="75" t="str">
+      <c r="B54" s="480"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="67" t="str">
         <f>'План счетов'!A337</f>
         <v>«2 11 550»</v>
       </c>
-      <c r="E54" s="76" t="str">
+      <c r="E54" s="68" t="str">
         <f>'План счетов'!B337</f>
         <v>Депонентҳо барои пардохт</v>
       </c>
-      <c r="F54" s="80"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="132">
+      <c r="F54" s="72"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="432"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="75" t="str">
+      <c r="B55" s="480"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="67" t="str">
         <f>'План счетов'!A338</f>
         <v>«2 11 560»</v>
       </c>
-      <c r="E55" s="76" t="str">
+      <c r="E55" s="68" t="str">
         <f>'План счетов'!B338</f>
         <v>Идрорпулиҳо барои пардохт</v>
       </c>
-      <c r="F55" s="80"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="132">
+      <c r="F55" s="72"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="432"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="75" t="str">
+      <c r="B56" s="480"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="67" t="str">
         <f>'План счетов'!A339</f>
         <v>«2 11 570»</v>
       </c>
-      <c r="E56" s="75" t="str">
+      <c r="E56" s="67" t="str">
         <f>'План счетов'!B339</f>
         <v>Рухсатпулиҳо барои пардохт</v>
       </c>
-      <c r="F56" s="80"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="132">
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="432"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="75" t="str">
+      <c r="B57" s="480"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="67" t="str">
         <f>'План счетов'!A340</f>
         <v>«2 11 580»</v>
       </c>
-      <c r="E57" s="75" t="str">
+      <c r="E57" s="67" t="str">
         <f>'План счетов'!B340</f>
         <v>Уњдадорињои њисобкардашуда ба шахсони њисоботдењ</v>
       </c>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="132">
+      <c r="F57" s="72"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="432"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="75" t="str">
+      <c r="B58" s="480"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="67" t="str">
         <f>'План счетов'!A341</f>
         <v>«2 11 590»</v>
       </c>
-      <c r="E58" s="75" t="str">
+      <c r="E58" s="67" t="str">
         <f>'План счетов'!B341</f>
         <v>Дигар ӯҳдадориҳои ҳисобкардашуда</v>
       </c>
-      <c r="F58" s="80"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="132">
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="432"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="75" t="str">
+      <c r="B59" s="480"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="67" t="str">
         <f>'План счетов'!A344</f>
         <v>«2 11 610»</v>
       </c>
-      <c r="E59" s="75"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="132">
+      <c r="E59" s="67"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="432"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="75" t="str">
+      <c r="B60" s="480"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="67" t="str">
         <f>'План счетов'!A345</f>
         <v>«2 11 620»</v>
       </c>
-      <c r="E60" s="75"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="132">
+      <c r="E60" s="67"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="432"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="75" t="str">
+      <c r="B61" s="480"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="67" t="str">
         <f>'План счетов'!A346</f>
         <v>«2 11 630»</v>
       </c>
-      <c r="E61" s="75"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="132">
+      <c r="E61" s="67"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="432"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="75" t="str">
+      <c r="B62" s="480"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="67" t="str">
         <f>'План счетов'!A347</f>
         <v>«2 11 640»</v>
       </c>
-      <c r="E62" s="75" t="str">
+      <c r="E62" s="67" t="str">
         <f>'План счетов'!B347</f>
         <v xml:space="preserve">Андоз аз амволи гайриманқул барои пардохт </v>
       </c>
-      <c r="F62" s="80"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="132">
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="432"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="75" t="str">
+      <c r="B63" s="480"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="67" t="str">
         <f>'План счетов'!A348</f>
         <v>«2 11 650»</v>
       </c>
-      <c r="E63" s="75"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="132">
+      <c r="E63" s="67"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="432"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="75" t="str">
+      <c r="B64" s="480"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="67" t="str">
         <f>'План счетов'!A349</f>
         <v>«2 11 660»</v>
       </c>
-      <c r="E64" s="75" t="str">
+      <c r="E64" s="67" t="str">
         <f>'План счетов'!B349</f>
         <v>Андози иҷтимоӣ аз корманд барои пардохт</v>
       </c>
-      <c r="F64" s="80"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="132">
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="432"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="75" t="str">
+      <c r="B65" s="480"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="67" t="str">
         <f>'План счетов'!A350</f>
         <v>«2 11 670»</v>
       </c>
-      <c r="E65" s="75" t="str">
+      <c r="E65" s="67" t="str">
         <f>'План счетов'!B350</f>
         <v>Андоз аз даромади шахсони воқеӣ барои пардохт</v>
       </c>
-      <c r="F65" s="80"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
-      <c r="K65" s="132">
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="432"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="75" t="str">
+      <c r="B66" s="480"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="67" t="str">
         <f>'План счетов'!A351</f>
         <v>«2 11 680»</v>
       </c>
-      <c r="E66" s="75" t="str">
+      <c r="E66" s="67" t="str">
         <f>'План счетов'!B351</f>
         <v>Андози иҷтимоӣ аз корфармо барои пардохт</v>
       </c>
-      <c r="F66" s="80"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
-      <c r="K66" s="132">
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="15" thickBot="1">
-      <c r="B67" s="433"/>
-      <c r="C67" s="133"/>
-      <c r="D67" s="134" t="str">
+      <c r="B67" s="481"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="125" t="str">
         <f>'План счетов'!A352</f>
         <v>«2 11 681»</v>
       </c>
-      <c r="E67" s="134" t="str">
+      <c r="E67" s="125" t="str">
         <f>'План счетов'!B352</f>
         <v>1.4% шифохонагӣ-курортӣ</v>
       </c>
-      <c r="F67" s="135"/>
-      <c r="G67" s="136"/>
-      <c r="H67" s="136"/>
-      <c r="I67" s="136"/>
-      <c r="J67" s="136"/>
-      <c r="K67" s="137">
+      <c r="F67" s="126"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="127"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="128">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:11" ht="15" thickBot="1">
-      <c r="B68" s="119"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="120"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="122"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="113"/>
+      <c r="H68" s="113"/>
+      <c r="I68" s="113"/>
+      <c r="J68" s="113"/>
+      <c r="K68" s="113"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="431" t="s">
+      <c r="B69" s="479" t="s">
         <v>1841</v>
       </c>
-      <c r="C69" s="127"/>
-      <c r="D69" s="128" t="str">
+      <c r="C69" s="118"/>
+      <c r="D69" s="119" t="str">
         <f>'План счетов'!A464</f>
         <v>«3 10 310»</v>
       </c>
-      <c r="E69" s="128" t="str">
+      <c r="E69" s="119" t="str">
         <f>'План счетов'!B464</f>
         <v>Саҳмияҳои оддӣ</v>
       </c>
-      <c r="F69" s="129"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="130"/>
-      <c r="J69" s="130"/>
-      <c r="K69" s="131">
+      <c r="F69" s="120"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="121"/>
+      <c r="I69" s="121"/>
+      <c r="J69" s="121"/>
+      <c r="K69" s="122">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="432"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="75" t="str">
+      <c r="B70" s="480"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="67" t="str">
         <f>'План счетов'!A465</f>
         <v>«3 10 320»</v>
       </c>
-      <c r="E70" s="75" t="str">
+      <c r="E70" s="67" t="str">
         <f>'План счетов'!B465</f>
         <v xml:space="preserve">Саҳмияҳои имтиёзнок </v>
       </c>
-      <c r="F70" s="80"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="81"/>
-      <c r="I70" s="81"/>
-      <c r="J70" s="81"/>
-      <c r="K70" s="132">
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:11" ht="15" thickBot="1">
-      <c r="B71" s="433"/>
-      <c r="C71" s="133"/>
-      <c r="D71" s="134" t="str">
+      <c r="B71" s="481"/>
+      <c r="C71" s="124"/>
+      <c r="D71" s="125" t="str">
         <f>'План счетов'!A466</f>
         <v>«3 10 330»</v>
       </c>
-      <c r="E71" s="134" t="str">
+      <c r="E71" s="125" t="str">
         <f>'План счетов'!B466</f>
         <v xml:space="preserve">Сармояи барилова пардохтшуда </v>
       </c>
-      <c r="F71" s="135"/>
-      <c r="G71" s="136"/>
-      <c r="H71" s="136"/>
-      <c r="I71" s="136"/>
-      <c r="J71" s="136"/>
-      <c r="K71" s="137">
+      <c r="F71" s="126"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="127"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="127"/>
+      <c r="K71" s="128">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:11" s="35" customFormat="1" ht="15" thickBot="1">
-      <c r="B72" s="126"/>
-      <c r="C72" s="126"/>
-      <c r="D72" s="120"/>
-      <c r="E72" s="120"/>
-      <c r="F72" s="121"/>
-      <c r="G72" s="122"/>
-      <c r="H72" s="122"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="122">
+      <c r="B72" s="117"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="112"/>
+      <c r="G72" s="113"/>
+      <c r="H72" s="113"/>
+      <c r="I72" s="113"/>
+      <c r="J72" s="113"/>
+      <c r="K72" s="113">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="431" t="s">
+      <c r="B73" s="479" t="s">
         <v>1817</v>
       </c>
-      <c r="C73" s="127"/>
-      <c r="D73" s="128" t="str">
+      <c r="C73" s="118"/>
+      <c r="D73" s="119" t="str">
         <f>'План счетов'!A605</f>
         <v>«4 18 310»</v>
       </c>
-      <c r="E73" s="138" t="str">
+      <c r="E73" s="129" t="str">
         <f>'План счетов'!B605</f>
         <v xml:space="preserve">Ҷорӣ </v>
       </c>
-      <c r="F73" s="129"/>
-      <c r="G73" s="130"/>
-      <c r="H73" s="130"/>
-      <c r="I73" s="130"/>
-      <c r="J73" s="130"/>
-      <c r="K73" s="131"/>
+      <c r="F73" s="120"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="121"/>
+      <c r="K73" s="122"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="432"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="78" t="str">
+      <c r="B74" s="480"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="70" t="str">
         <f>'План счетов'!A637</f>
         <v>«4 42 300»</v>
       </c>
-      <c r="E74" s="78" t="str">
+      <c r="E74" s="70" t="str">
         <f>'План счетов'!B637</f>
         <v xml:space="preserve">Даромадҳо аз фурӯши мол ва иҷрои кори муассисаҳои ғайрибозоргонӣ </v>
       </c>
-      <c r="F74" s="80"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="132"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="123"/>
     </row>
     <row r="75" spans="2:11" ht="15" thickBot="1">
-      <c r="B75" s="433"/>
-      <c r="C75" s="133"/>
-      <c r="D75" s="139" t="str">
+      <c r="B75" s="481"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="130" t="str">
         <f>'План счетов'!A638</f>
         <v>«4 42 310»</v>
       </c>
-      <c r="E75" s="139" t="str">
+      <c r="E75" s="130" t="str">
         <f>'План счетов'!B638</f>
         <v>Воридот аз ташкилотҳои зертобеъ</v>
       </c>
-      <c r="F75" s="135"/>
-      <c r="G75" s="136"/>
-      <c r="H75" s="136"/>
-      <c r="I75" s="136"/>
-      <c r="J75" s="136"/>
-      <c r="K75" s="137"/>
+      <c r="F75" s="126"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="127"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="128"/>
     </row>
     <row r="76" spans="2:11" s="35" customFormat="1" ht="15" thickBot="1">
-      <c r="B76" s="126"/>
-      <c r="C76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="121"/>
-      <c r="G76" s="122"/>
-      <c r="H76" s="122"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="112"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="113"/>
+      <c r="K76" s="113"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="431" t="s">
+      <c r="B77" s="479" t="s">
         <v>1824</v>
       </c>
-      <c r="C77" s="127"/>
-      <c r="D77" s="128" t="str">
+      <c r="C77" s="118"/>
+      <c r="D77" s="119" t="str">
         <f>'План счетов'!A743</f>
         <v>«5 10 100»</v>
       </c>
-      <c r="E77" s="138" t="str">
+      <c r="E77" s="129" t="str">
         <f>'План счетов'!B743</f>
         <v>Музди меҳнат дар шакли пулӣ</v>
       </c>
-      <c r="F77" s="129"/>
-      <c r="G77" s="130"/>
-      <c r="H77" s="130"/>
-      <c r="I77" s="130"/>
-      <c r="J77" s="130"/>
-      <c r="K77" s="131"/>
+      <c r="F77" s="120"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="121"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="121"/>
+      <c r="K77" s="122"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="432"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="75" t="str">
+      <c r="B78" s="480"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="67" t="str">
         <f>'План счетов'!A745</f>
         <v>«5 10 300»</v>
       </c>
-      <c r="E78" s="76" t="str">
+      <c r="E78" s="68" t="str">
         <f>'План счетов'!B745</f>
         <v xml:space="preserve">Подошпулиҳо </v>
       </c>
-      <c r="F78" s="80"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="81"/>
-      <c r="I78" s="81"/>
-      <c r="J78" s="81"/>
-      <c r="K78" s="132"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="123"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="432"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="75" t="str">
+      <c r="B79" s="480"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="67" t="str">
         <f>'План счетов'!A746</f>
         <v>«5 10 400»</v>
       </c>
-      <c r="E79" s="76" t="str">
+      <c r="E79" s="68" t="str">
         <f>'План счетов'!B746</f>
         <v>Ҳаққи заҳмат</v>
       </c>
-      <c r="F79" s="80"/>
-      <c r="G79" s="81"/>
-      <c r="H79" s="81"/>
-      <c r="I79" s="81"/>
-      <c r="J79" s="81"/>
-      <c r="K79" s="132"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="123"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="432"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="75" t="str">
+      <c r="B80" s="480"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="67" t="str">
         <f>'План счетов'!A748</f>
         <v>«5 11 100»</v>
       </c>
-      <c r="E80" s="76" t="str">
+      <c r="E80" s="68" t="str">
         <f>'План счетов'!B748</f>
         <v>Суғуртаи иҷтимоӣ</v>
       </c>
-      <c r="F80" s="80"/>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
-      <c r="I80" s="81"/>
-      <c r="J80" s="81"/>
-      <c r="K80" s="132"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="123"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="432"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="75" t="str">
+      <c r="B81" s="480"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="67" t="str">
         <f>'План счетов'!A749</f>
         <v>«5 11 200»</v>
       </c>
-      <c r="E81" s="76" t="str">
+      <c r="E81" s="68" t="str">
         <f>'План счетов'!B749</f>
         <v>Суғуртаи тиббӣ</v>
       </c>
-      <c r="F81" s="80"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="132"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="123"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="432"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="75" t="str">
+      <c r="B82" s="480"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="67" t="str">
         <f>'План счетов'!A750</f>
         <v>«5 11 900»</v>
       </c>
-      <c r="E82" s="76" t="str">
+      <c r="E82" s="68" t="str">
         <f>'План счетов'!B750</f>
         <v>Дигар суғуртаи давлатӣ</v>
       </c>
-      <c r="F82" s="80"/>
-      <c r="G82" s="81"/>
-      <c r="H82" s="81"/>
-      <c r="I82" s="81"/>
-      <c r="J82" s="81"/>
-      <c r="K82" s="132"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="123"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="432"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="107" t="str">
+      <c r="B83" s="480"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="98" t="str">
         <f>'План счетов'!A796</f>
         <v>«5 12 771»</v>
       </c>
-      <c r="E83" s="107" t="str">
+      <c r="E83" s="98" t="str">
         <f>'План счетов'!B796</f>
         <v xml:space="preserve">Хизматрасониҳои алоқа </v>
       </c>
-      <c r="F83" s="80"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="132"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
+      <c r="K83" s="123"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="432"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="75" t="str">
+      <c r="B84" s="480"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="67" t="str">
         <f>'План счетов'!A751</f>
         <v>«5 12 100»</v>
       </c>
-      <c r="E84" s="76" t="str">
+      <c r="E84" s="68" t="str">
         <f>'План счетов'!B751</f>
         <v xml:space="preserve">Истифодаи молҳо </v>
       </c>
-      <c r="F84" s="80"/>
-      <c r="G84" s="81"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="81"/>
-      <c r="J84" s="81"/>
-      <c r="K84" s="132"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="123"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="432"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="75" t="str">
+      <c r="B85" s="480"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="67" t="str">
         <f>'План счетов'!A752</f>
         <v>«5 12 110»</v>
       </c>
-      <c r="E85" s="76" t="str">
+      <c r="E85" s="68" t="str">
         <f>'План счетов'!B752</f>
         <v xml:space="preserve">Молҳои таҳрирӣ ва лавозимоти таълимӣ </v>
       </c>
-      <c r="F85" s="80"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="81"/>
-      <c r="I85" s="81"/>
-      <c r="J85" s="81"/>
-      <c r="K85" s="132"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+      <c r="K85" s="123"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="432"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="75" t="str">
+      <c r="B86" s="480"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="67" t="str">
         <f>'План счетов'!A753</f>
         <v>«5 12 120»</v>
       </c>
-      <c r="E86" s="76" t="str">
+      <c r="E86" s="68" t="str">
         <f>'План счетов'!B753</f>
         <v xml:space="preserve">Молҳо ва инвентари хоҷагидорӣ  </v>
       </c>
-      <c r="F86" s="80"/>
-      <c r="G86" s="81"/>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
-      <c r="K86" s="132"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="123"/>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="432"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="75" t="str">
+      <c r="B87" s="480"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="67" t="str">
         <f>'План счетов'!A754</f>
         <v>«5 12 130»</v>
       </c>
-      <c r="E87" s="76" t="str">
+      <c r="E87" s="68" t="str">
         <f>'План счетов'!B754</f>
         <v xml:space="preserve">Масолеҳи масрафшаванда </v>
       </c>
-      <c r="F87" s="80"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="81"/>
-      <c r="K87" s="132"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="123"/>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="432"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="75" t="str">
+      <c r="B88" s="480"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="67" t="str">
         <f>'План счетов'!A755</f>
         <v>«5 12 140»</v>
       </c>
-      <c r="E88" s="76" t="str">
+      <c r="E88" s="68" t="str">
         <f>'План счетов'!B755</f>
         <v xml:space="preserve">Ҷиҳоз ва либоси расмии дигар, инвентари мулоим </v>
       </c>
-      <c r="F88" s="80"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="81"/>
-      <c r="I88" s="81"/>
-      <c r="J88" s="81"/>
-      <c r="K88" s="132"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="123"/>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="432"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="75" t="str">
+      <c r="B89" s="480"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="67" t="str">
         <f>'План счетов'!A762</f>
         <v>«5 12 310»</v>
       </c>
-      <c r="E89" s="76" t="str">
+      <c r="E89" s="68" t="str">
         <f>'План счетов'!B762</f>
         <v>Бензин</v>
       </c>
-      <c r="F89" s="80"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="81"/>
-      <c r="I89" s="81"/>
-      <c r="J89" s="81"/>
-      <c r="K89" s="132"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="123"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="432"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="75" t="str">
+      <c r="B90" s="480"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="67" t="str">
         <f>'План счетов'!A763</f>
         <v>«5 12 320»</v>
       </c>
-      <c r="E90" s="76" t="str">
+      <c r="E90" s="68" t="str">
         <f>'План счетов'!B763</f>
         <v>Сухти дизелӣ (Солярка)</v>
       </c>
-      <c r="F90" s="80"/>
-      <c r="G90" s="81"/>
-      <c r="H90" s="81"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="81"/>
-      <c r="K90" s="132"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="123"/>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="432"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="75" t="str">
+      <c r="B91" s="480"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="67" t="str">
         <f>'План счетов'!A767</f>
         <v>«5 12 390»</v>
       </c>
-      <c r="E91" s="76" t="str">
+      <c r="E91" s="68" t="str">
         <f>'План счетов'!B767</f>
         <v>Дигар маводи сухт</v>
       </c>
-      <c r="F91" s="80"/>
-      <c r="G91" s="81"/>
-      <c r="H91" s="81"/>
-      <c r="I91" s="81"/>
-      <c r="J91" s="81"/>
-      <c r="K91" s="132"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
+      <c r="K91" s="123"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="432"/>
-      <c r="C92" s="88"/>
-      <c r="D92" s="75" t="str">
+      <c r="B92" s="480"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="67" t="str">
         <f>'План счетов'!A769</f>
         <v>«5 12 420»</v>
       </c>
-      <c r="E92" s="76" t="str">
+      <c r="E92" s="68" t="str">
         <f>'План счетов'!B769</f>
         <v xml:space="preserve">Таълим ва таҷдиди таълими кормандон </v>
       </c>
-      <c r="F92" s="80"/>
-      <c r="G92" s="81"/>
-      <c r="H92" s="81"/>
-      <c r="I92" s="81"/>
-      <c r="J92" s="81"/>
-      <c r="K92" s="132"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="123"/>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="432"/>
-      <c r="C93" s="88"/>
-      <c r="D93" s="75" t="str">
+      <c r="B93" s="480"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="67" t="str">
         <f>'План счетов'!A770</f>
         <v>«5 12 430»</v>
       </c>
-      <c r="E93" s="76" t="str">
+      <c r="E93" s="68" t="str">
         <f>'План счетов'!B770</f>
         <v xml:space="preserve">Хароҷоти  намояндагӣ </v>
       </c>
-      <c r="F93" s="80"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="81"/>
-      <c r="I93" s="81"/>
-      <c r="J93" s="81"/>
-      <c r="K93" s="132"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="123"/>
     </row>
     <row r="94" spans="2:11" ht="28.8">
-      <c r="B94" s="432"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="75" t="str">
+      <c r="B94" s="480"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="67" t="str">
         <f>'План счетов'!A771</f>
         <v>«5 12 440»</v>
       </c>
-      <c r="E94" s="76" t="str">
+      <c r="E94" s="68" t="str">
         <f>'План счетов'!B771</f>
         <v xml:space="preserve">Тайёр кардани мукофотҳо, гувоҳиномаҳо, медалҳо, сиккаҳо ва хариди тӯҳфаҳо </v>
       </c>
-      <c r="F94" s="80"/>
-      <c r="G94" s="81"/>
-      <c r="H94" s="81"/>
-      <c r="I94" s="81"/>
-      <c r="J94" s="81"/>
-      <c r="K94" s="132"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
+      <c r="J94" s="73"/>
+      <c r="K94" s="123"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="432"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="78" t="str">
+      <c r="B95" s="480"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="70" t="str">
         <f>'План счетов'!A772</f>
         <v>«5 12 450»</v>
       </c>
-      <c r="E95" s="113" t="str">
+      <c r="E95" s="104" t="str">
         <f>'План счетов'!B772</f>
         <v xml:space="preserve"> Хароҷоти сафарҳои хизматӣ </v>
       </c>
-      <c r="F95" s="80"/>
-      <c r="G95" s="81"/>
-      <c r="H95" s="81"/>
-      <c r="I95" s="81"/>
-      <c r="J95" s="81"/>
-      <c r="K95" s="132"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+      <c r="I95" s="73"/>
+      <c r="J95" s="73"/>
+      <c r="K95" s="123"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="432"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="75" t="str">
+      <c r="B96" s="480"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="67" t="str">
         <f>'План счетов'!A777</f>
         <v>«5 12 510»</v>
       </c>
-      <c r="E96" s="76" t="str">
+      <c r="E96" s="68" t="str">
         <f>'План счетов'!B777</f>
         <v xml:space="preserve">Хароҷоти таъмири ҷорӣ -Биноҳо ва иншоот </v>
       </c>
-      <c r="F96" s="80"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="81"/>
-      <c r="I96" s="81"/>
-      <c r="J96" s="81"/>
-      <c r="K96" s="132"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+      <c r="I96" s="73"/>
+      <c r="J96" s="73"/>
+      <c r="K96" s="123"/>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="432"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="75" t="str">
+      <c r="B97" s="480"/>
+      <c r="C97" s="79"/>
+      <c r="D97" s="67" t="str">
         <f>'План счетов'!A789</f>
         <v>«5 12 710»</v>
       </c>
-      <c r="E97" s="76" t="str">
+      <c r="E97" s="68" t="str">
         <f>'План счетов'!B789</f>
         <v xml:space="preserve">Энергияи барқ </v>
       </c>
-      <c r="F97" s="80"/>
-      <c r="G97" s="81"/>
-      <c r="H97" s="81"/>
-      <c r="I97" s="81"/>
-      <c r="J97" s="81"/>
-      <c r="K97" s="132"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="73"/>
+      <c r="K97" s="123"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="432"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="75" t="str">
+      <c r="B98" s="480"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="67" t="str">
         <f>'План счетов'!A801</f>
         <v>«5 12 820»</v>
       </c>
-      <c r="E98" s="76" t="str">
+      <c r="E98" s="68" t="str">
         <f>'План счетов'!B801</f>
         <v>Хароҷоти хизматрасонии бонк</v>
       </c>
-      <c r="F98" s="80"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="81"/>
-      <c r="I98" s="81"/>
-      <c r="J98" s="81"/>
-      <c r="K98" s="132"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="73"/>
+      <c r="I98" s="73"/>
+      <c r="J98" s="73"/>
+      <c r="K98" s="123"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="432"/>
-      <c r="C99" s="88"/>
-      <c r="D99" s="75" t="str">
+      <c r="B99" s="480"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="67" t="str">
         <f>'План счетов'!A803</f>
         <v>«5 13 100»</v>
       </c>
-      <c r="E99" s="76" t="str">
+      <c r="E99" s="68" t="str">
         <f>'План счетов'!B803</f>
         <v xml:space="preserve">Хароҷоти истеҳлоки воситаҳои  асосӣ </v>
       </c>
-      <c r="F99" s="80"/>
-      <c r="G99" s="81"/>
-      <c r="H99" s="81"/>
-      <c r="I99" s="81"/>
-      <c r="J99" s="81"/>
-      <c r="K99" s="132"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="123"/>
     </row>
     <row r="100" spans="2:11" ht="15" thickBot="1">
-      <c r="B100" s="433"/>
-      <c r="C100" s="133"/>
-      <c r="D100" s="134" t="str">
+      <c r="B100" s="481"/>
+      <c r="C100" s="124"/>
+      <c r="D100" s="125" t="str">
         <f>'План счетов'!A805</f>
         <v>«5 13 300»</v>
       </c>
-      <c r="E100" s="140" t="str">
+      <c r="E100" s="131" t="str">
         <f>'План счетов'!B805</f>
         <v>Хароҷоти истеҳлоки дороиҳои ғайримоддии истеҳсолнашуда</v>
       </c>
-      <c r="F100" s="135"/>
-      <c r="G100" s="136"/>
-      <c r="H100" s="136"/>
-      <c r="I100" s="136"/>
-      <c r="J100" s="136"/>
-      <c r="K100" s="137"/>
+      <c r="F100" s="126"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="127"/>
+      <c r="I100" s="127"/>
+      <c r="J100" s="127"/>
+      <c r="K100" s="128"/>
     </row>
     <row r="101" spans="2:11" ht="15" thickBot="1">
-      <c r="B101" s="141"/>
-      <c r="C101" s="141"/>
-      <c r="D101" s="142"/>
-      <c r="E101" s="141"/>
-      <c r="F101" s="143"/>
-      <c r="G101" s="144"/>
-      <c r="H101" s="144"/>
-      <c r="I101" s="144"/>
-      <c r="J101" s="144"/>
-      <c r="K101" s="144"/>
+      <c r="B101" s="132"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="133"/>
+      <c r="E101" s="132"/>
+      <c r="F101" s="134"/>
+      <c r="G101" s="135"/>
+      <c r="H101" s="135"/>
+      <c r="I101" s="135"/>
+      <c r="J101" s="135"/>
+      <c r="K101" s="135"/>
     </row>
     <row r="102" spans="2:11" ht="29.4" thickBot="1">
-      <c r="B102" s="145" t="s">
+      <c r="B102" s="136" t="s">
         <v>1818</v>
       </c>
-      <c r="C102" s="146"/>
-      <c r="D102" s="147" t="str">
+      <c r="C102" s="137"/>
+      <c r="D102" s="138" t="str">
         <f>'План счетов'!A963</f>
         <v>«6 10 000»</v>
       </c>
-      <c r="E102" s="148" t="str">
+      <c r="E102" s="139" t="str">
         <f>'План счетов'!B963</f>
         <v xml:space="preserve">Маҷмӯи даромадҳо ва хароҷот </v>
       </c>
-      <c r="F102" s="149">
+      <c r="F102" s="140">
         <f t="shared" ref="F102:I102" si="6">SUM(F4:F100)</f>
         <v>721122</v>
       </c>
-      <c r="G102" s="149">
+      <c r="G102" s="140">
         <f t="shared" si="6"/>
         <v>721122</v>
       </c>
-      <c r="H102" s="149">
+      <c r="H102" s="140">
         <f t="shared" si="6"/>
         <v>359062</v>
       </c>
-      <c r="I102" s="149">
+      <c r="I102" s="140">
         <f t="shared" si="6"/>
         <v>359062</v>
       </c>
-      <c r="J102" s="149">
+      <c r="J102" s="140">
         <f>SUM(J4:J100)</f>
         <v>1054984</v>
       </c>
-      <c r="K102" s="149">
+      <c r="K102" s="140">
         <f>SUM(K4:K100)</f>
         <v>1054984</v>
       </c>
     </row>
     <row r="103" spans="2:11">
-      <c r="F103" s="157">
+      <c r="F103" s="148">
         <f>G102-F102</f>
         <v>0</v>
       </c>
-      <c r="G103" s="156">
+      <c r="G103" s="147">
         <f>F102-G102</f>
         <v>0</v>
       </c>
-      <c r="H103" s="156">
+      <c r="H103" s="147">
         <f>I102-H102</f>
         <v>0</v>
       </c>
-      <c r="I103" s="156">
+      <c r="I103" s="147">
         <f>H102-I102</f>
         <v>0</v>
       </c>
-      <c r="J103" s="156">
+      <c r="J103" s="147">
         <f>K102-J102</f>
         <v>0</v>
       </c>
-      <c r="K103" s="156">
+      <c r="K103" s="147">
         <f>J102-K102</f>
         <v>0</v>
       </c>
